--- a/GradeDistributionsDB/Fall2013/Output/Fall2013 BA.xlsx
+++ b/GradeDistributionsDB/Fall2013/Output/Fall2013 BA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="884">
   <si>
     <t>Course</t>
   </si>
@@ -394,6 +394,21 @@
     <t>5.41%</t>
   </si>
   <si>
+    <t>SHAUB M</t>
+  </si>
+  <si>
+    <t>26.71%</t>
+  </si>
+  <si>
+    <t>63.01%</t>
+  </si>
+  <si>
+    <t>9.59%</t>
+  </si>
+  <si>
+    <t>0.68%</t>
+  </si>
+  <si>
     <t>FLAGG J</t>
   </si>
   <si>
@@ -403,21 +418,6 @@
     <t>52.78%</t>
   </si>
   <si>
-    <t>SHAUB M</t>
-  </si>
-  <si>
-    <t>26.71%</t>
-  </si>
-  <si>
-    <t>63.01%</t>
-  </si>
-  <si>
-    <t>9.59%</t>
-  </si>
-  <si>
-    <t>0.68%</t>
-  </si>
-  <si>
     <t>ACCT-408</t>
   </si>
   <si>
@@ -1228,6 +1228,12 @@
     <t>MAHAJAN V</t>
   </si>
   <si>
+    <t>IBUS-452</t>
+  </si>
+  <si>
+    <t>GOMEZ-MEJIA L</t>
+  </si>
+  <si>
     <t>INFO-601</t>
   </si>
   <si>
@@ -1258,6 +1264,12 @@
     <t>6.38%</t>
   </si>
   <si>
+    <t>INFO-612</t>
+  </si>
+  <si>
+    <t>ARREOLA-RISA A</t>
+  </si>
+  <si>
     <t>INFO-614</t>
   </si>
   <si>
@@ -1273,6 +1285,12 @@
     <t>11.36%</t>
   </si>
   <si>
+    <t>86.11%</t>
+  </si>
+  <si>
+    <t>13.89%</t>
+  </si>
+  <si>
     <t>INFO-628</t>
   </si>
   <si>
@@ -1864,6 +1882,12 @@
     <t>MGMT-452</t>
   </si>
   <si>
+    <t>77.27%</t>
+  </si>
+  <si>
+    <t>22.73%</t>
+  </si>
+  <si>
     <t>68.18%</t>
   </si>
   <si>
@@ -1975,6 +1999,9 @@
     <t>4.55%</t>
   </si>
   <si>
+    <t>KING-METTERS K</t>
+  </si>
+  <si>
     <t>MGMT-602</t>
   </si>
   <si>
@@ -2089,6 +2116,9 @@
     <t>21.05%</t>
   </si>
   <si>
+    <t>94.12%</t>
+  </si>
+  <si>
     <t>MGMT-640</t>
   </si>
   <si>
@@ -2401,12 +2431,6 @@
     <t>MCDANIEL S</t>
   </si>
   <si>
-    <t>86.11%</t>
-  </si>
-  <si>
-    <t>13.89%</t>
-  </si>
-  <si>
     <t>MKTG-665</t>
   </si>
   <si>
@@ -2542,6 +2566,18 @@
     <t>1.23%</t>
   </si>
   <si>
+    <t>SCMT-361</t>
+  </si>
+  <si>
+    <t>47.62%</t>
+  </si>
+  <si>
+    <t>41.90%</t>
+  </si>
+  <si>
+    <t>1.90%</t>
+  </si>
+  <si>
     <t>SCMT-364</t>
   </si>
   <si>
@@ -2600,9 +2636,6 @@
   </si>
   <si>
     <t>ERTEKIN N</t>
-  </si>
-  <si>
-    <t>47.62%</t>
   </si>
   <si>
     <t>23.81%</t>
@@ -2969,7 +3002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H621"/>
+  <dimension ref="A1:H634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3546,7 +3579,7 @@
         <v>126</v>
       </c>
       <c r="C44" t="n">
-        <v>3.472</v>
+        <v>3.157</v>
       </c>
       <c r="D44" t="s">
         <v>127</v>
@@ -3555,10 +3588,10 @@
         <v>128</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="H44" t="s">
         <v>33</v>
@@ -3566,22 +3599,22 @@
     </row>
     <row r="45" spans="1:8">
       <c r="B45" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C45" t="n">
-        <v>3.157</v>
+        <v>3.472</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E45" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F45" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="H45" t="s">
         <v>33</v>
@@ -3729,7 +3762,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="B61" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C61" t="n">
         <v>3.744</v>
@@ -3847,10 +3880,10 @@
         <v>3.472</v>
       </c>
       <c r="D73" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E73" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F73" t="s">
         <v>33</v>
@@ -5826,13 +5859,13 @@
         <v>405</v>
       </c>
       <c r="C259" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D259" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="E259" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="F259" t="s">
         <v>33</v>
@@ -5854,67 +5887,67 @@
         <v>407</v>
       </c>
       <c r="C262" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D262" t="s">
+        <v>141</v>
+      </c>
+      <c r="E262" t="s">
+        <v>141</v>
+      </c>
+      <c r="F262" t="s">
+        <v>33</v>
+      </c>
+      <c r="G262" t="s">
+        <v>33</v>
+      </c>
+      <c r="H262" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="B265" t="s">
+        <v>409</v>
+      </c>
+      <c r="C265" t="n">
         <v>3.4035</v>
       </c>
-      <c r="D262" t="s">
-        <v>408</v>
-      </c>
-      <c r="E262" t="s">
+      <c r="D265" t="s">
+        <v>410</v>
+      </c>
+      <c r="E265" t="s">
         <v>178</v>
       </c>
-      <c r="F262" t="s">
-        <v>409</v>
-      </c>
-      <c r="G262" t="s">
-        <v>33</v>
-      </c>
-      <c r="H262" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
-      <c r="B263" t="s">
-        <v>410</v>
-      </c>
-      <c r="C263" t="n">
-        <v>3.5455</v>
-      </c>
-      <c r="D263" t="s">
+      <c r="F265" t="s">
         <v>411</v>
       </c>
-      <c r="E263" t="s">
-        <v>412</v>
-      </c>
-      <c r="F263" t="s">
-        <v>413</v>
-      </c>
-      <c r="G263" t="s">
-        <v>33</v>
-      </c>
-      <c r="H263" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
-      <c r="A265" t="s">
-        <v>414</v>
+      <c r="G265" t="s">
+        <v>33</v>
+      </c>
+      <c r="H265" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="266" spans="1:8">
       <c r="B266" t="s">
+        <v>412</v>
+      </c>
+      <c r="C266" t="n">
+        <v>3.5455</v>
+      </c>
+      <c r="D266" t="s">
+        <v>413</v>
+      </c>
+      <c r="E266" t="s">
+        <v>414</v>
+      </c>
+      <c r="F266" t="s">
         <v>415</v>
-      </c>
-      <c r="C266" t="n">
-        <v>3.296</v>
-      </c>
-      <c r="D266" t="s">
-        <v>416</v>
-      </c>
-      <c r="E266" t="s">
-        <v>417</v>
-      </c>
-      <c r="F266" t="s">
-        <v>418</v>
       </c>
       <c r="G266" t="s">
         <v>33</v>
@@ -5925,24 +5958,24 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="269" spans="1:8">
       <c r="B269" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C269" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D269" t="s">
         <v>141</v>
       </c>
       <c r="E269" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="F269" t="s">
-        <v>402</v>
+        <v>33</v>
       </c>
       <c r="G269" t="s">
         <v>33</v>
@@ -5953,271 +5986,271 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="272" spans="1:8">
       <c r="B272" t="s">
+        <v>419</v>
+      </c>
+      <c r="C272" t="n">
+        <v>3.296</v>
+      </c>
+      <c r="D272" t="s">
+        <v>420</v>
+      </c>
+      <c r="E272" t="s">
+        <v>421</v>
+      </c>
+      <c r="F272" t="s">
         <v>422</v>
       </c>
-      <c r="C272" t="n">
+      <c r="G272" t="s">
+        <v>33</v>
+      </c>
+      <c r="H272" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="B273" t="s">
+        <v>417</v>
+      </c>
+      <c r="C273" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="D273" t="s">
+        <v>423</v>
+      </c>
+      <c r="E273" t="s">
+        <v>424</v>
+      </c>
+      <c r="F273" t="s">
+        <v>33</v>
+      </c>
+      <c r="G273" t="s">
+        <v>33</v>
+      </c>
+      <c r="H273" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="B276" t="s">
+        <v>426</v>
+      </c>
+      <c r="C276" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D276" t="s">
+        <v>141</v>
+      </c>
+      <c r="E276" t="s">
+        <v>117</v>
+      </c>
+      <c r="F276" t="s">
+        <v>402</v>
+      </c>
+      <c r="G276" t="s">
+        <v>33</v>
+      </c>
+      <c r="H276" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="B279" t="s">
+        <v>428</v>
+      </c>
+      <c r="C279" t="n">
         <v>3.6045</v>
       </c>
-      <c r="D272" t="s">
-        <v>423</v>
-      </c>
-      <c r="E272" t="s">
-        <v>424</v>
-      </c>
-      <c r="F272" t="s">
-        <v>33</v>
-      </c>
-      <c r="G272" t="s">
-        <v>33</v>
-      </c>
-      <c r="H272" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
-      <c r="A274" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
-      <c r="B275" t="s">
-        <v>426</v>
-      </c>
-      <c r="C275" t="n">
+      <c r="D279" t="s">
+        <v>429</v>
+      </c>
+      <c r="E279" t="s">
+        <v>430</v>
+      </c>
+      <c r="F279" t="s">
+        <v>33</v>
+      </c>
+      <c r="G279" t="s">
+        <v>33</v>
+      </c>
+      <c r="H279" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="B282" t="s">
+        <v>432</v>
+      </c>
+      <c r="C282" t="n">
         <v>3.2</v>
       </c>
-      <c r="D275" t="s">
-        <v>427</v>
-      </c>
-      <c r="E275" t="s">
+      <c r="D282" t="s">
+        <v>433</v>
+      </c>
+      <c r="E282" t="s">
         <v>141</v>
       </c>
-      <c r="F275" t="s">
+      <c r="F282" t="s">
         <v>402</v>
       </c>
-      <c r="G275" t="s">
-        <v>33</v>
-      </c>
-      <c r="H275" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
-      <c r="A277" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
-      <c r="B278" t="s">
-        <v>430</v>
-      </c>
-      <c r="C278" t="n">
+      <c r="G282" t="s">
+        <v>33</v>
+      </c>
+      <c r="H282" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="B285" t="s">
+        <v>436</v>
+      </c>
+      <c r="C285" t="n">
         <v>3.9725</v>
       </c>
-      <c r="D278" t="s">
-        <v>431</v>
-      </c>
-      <c r="E278" t="s">
-        <v>432</v>
-      </c>
-      <c r="F278" t="s">
-        <v>33</v>
-      </c>
-      <c r="G278" t="s">
-        <v>33</v>
-      </c>
-      <c r="H278" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
-      <c r="A280" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
-      <c r="B281" t="s">
-        <v>434</v>
-      </c>
-      <c r="C281" t="n">
+      <c r="D285" t="s">
+        <v>437</v>
+      </c>
+      <c r="E285" t="s">
+        <v>438</v>
+      </c>
+      <c r="F285" t="s">
+        <v>33</v>
+      </c>
+      <c r="G285" t="s">
+        <v>33</v>
+      </c>
+      <c r="H285" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="B288" t="s">
+        <v>440</v>
+      </c>
+      <c r="C288" t="n">
         <v>3.316</v>
       </c>
-      <c r="D281" t="s">
-        <v>435</v>
-      </c>
-      <c r="E281" t="s">
-        <v>436</v>
-      </c>
-      <c r="F281" t="s">
-        <v>33</v>
-      </c>
-      <c r="G281" t="s">
-        <v>33</v>
-      </c>
-      <c r="H281" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
-      <c r="A283" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
-      <c r="B284" t="s">
-        <v>438</v>
-      </c>
-      <c r="C284" t="n">
+      <c r="D288" t="s">
+        <v>441</v>
+      </c>
+      <c r="E288" t="s">
+        <v>442</v>
+      </c>
+      <c r="F288" t="s">
+        <v>33</v>
+      </c>
+      <c r="G288" t="s">
+        <v>33</v>
+      </c>
+      <c r="H288" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="B291" t="s">
+        <v>444</v>
+      </c>
+      <c r="C291" t="n">
         <v>3.552</v>
       </c>
-      <c r="D284" t="s">
-        <v>439</v>
-      </c>
-      <c r="E284" t="s">
-        <v>440</v>
-      </c>
-      <c r="F284" t="s">
-        <v>33</v>
-      </c>
-      <c r="G284" t="s">
-        <v>33</v>
-      </c>
-      <c r="H284" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
-      <c r="A286" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
-      <c r="B287" t="s">
-        <v>442</v>
-      </c>
-      <c r="C287" t="n">
+      <c r="D291" t="s">
+        <v>445</v>
+      </c>
+      <c r="E291" t="s">
+        <v>446</v>
+      </c>
+      <c r="F291" t="s">
+        <v>33</v>
+      </c>
+      <c r="G291" t="s">
+        <v>33</v>
+      </c>
+      <c r="H291" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="B294" t="s">
+        <v>448</v>
+      </c>
+      <c r="C294" t="n">
         <v>3.6805</v>
       </c>
-      <c r="D287" t="s">
-        <v>443</v>
-      </c>
-      <c r="E287" t="s">
-        <v>444</v>
-      </c>
-      <c r="F287" t="s">
-        <v>33</v>
-      </c>
-      <c r="G287" t="s">
-        <v>33</v>
-      </c>
-      <c r="H287" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
-      <c r="A289" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
-      <c r="B290" t="s">
-        <v>446</v>
-      </c>
-      <c r="C290" t="n">
-        <v>3.9465</v>
-      </c>
-      <c r="D290" t="s">
-        <v>447</v>
-      </c>
-      <c r="E290" t="s">
-        <v>448</v>
-      </c>
-      <c r="F290" t="s">
-        <v>33</v>
-      </c>
-      <c r="G290" t="s">
-        <v>33</v>
-      </c>
-      <c r="H290" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
-      <c r="A292" t="s">
+      <c r="D294" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="293" spans="1:8">
-      <c r="B293" t="s">
-        <v>434</v>
-      </c>
-      <c r="C293" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D293" t="s">
-        <v>141</v>
-      </c>
-      <c r="E293" t="s">
-        <v>141</v>
-      </c>
-      <c r="F293" t="s">
-        <v>33</v>
-      </c>
-      <c r="G293" t="s">
-        <v>33</v>
-      </c>
-      <c r="H293" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
-      <c r="A295" t="s">
+      <c r="E294" t="s">
         <v>450</v>
       </c>
+      <c r="F294" t="s">
+        <v>33</v>
+      </c>
+      <c r="G294" t="s">
+        <v>33</v>
+      </c>
+      <c r="H294" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="296" spans="1:8">
-      <c r="B296" t="s">
+      <c r="A296" t="s">
         <v>451</v>
-      </c>
-      <c r="C296" t="n">
-        <v>2.818</v>
-      </c>
-      <c r="D296" t="s">
-        <v>256</v>
-      </c>
-      <c r="E296" t="s">
-        <v>452</v>
-      </c>
-      <c r="F296" t="s">
-        <v>453</v>
-      </c>
-      <c r="G296" t="s">
-        <v>33</v>
-      </c>
-      <c r="H296" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="297" spans="1:8">
       <c r="B297" t="s">
+        <v>452</v>
+      </c>
+      <c r="C297" t="n">
+        <v>3.9465</v>
+      </c>
+      <c r="D297" t="s">
+        <v>453</v>
+      </c>
+      <c r="E297" t="s">
         <v>454</v>
       </c>
-      <c r="C297" t="n">
-        <v>3.342</v>
-      </c>
-      <c r="D297" t="s">
-        <v>170</v>
-      </c>
-      <c r="E297" t="s">
-        <v>455</v>
-      </c>
       <c r="F297" t="s">
-        <v>456</v>
+        <v>33</v>
       </c>
       <c r="G297" t="s">
         <v>33</v>
@@ -6228,21 +6261,21 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="300" spans="1:8">
       <c r="B300" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="C300" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D300" t="s">
-        <v>246</v>
+        <v>141</v>
       </c>
       <c r="E300" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F300" t="s">
         <v>33</v>
@@ -6256,770 +6289,770 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="303" spans="1:8">
       <c r="B303" t="s">
+        <v>457</v>
+      </c>
+      <c r="C303" t="n">
+        <v>2.818</v>
+      </c>
+      <c r="D303" t="s">
+        <v>256</v>
+      </c>
+      <c r="E303" t="s">
+        <v>458</v>
+      </c>
+      <c r="F303" t="s">
+        <v>459</v>
+      </c>
+      <c r="G303" t="s">
+        <v>33</v>
+      </c>
+      <c r="H303" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="B304" t="s">
         <v>460</v>
       </c>
-      <c r="C303" t="n">
-        <v>3.762</v>
-      </c>
-      <c r="D303" t="s">
+      <c r="C304" t="n">
+        <v>3.342</v>
+      </c>
+      <c r="D304" t="s">
+        <v>170</v>
+      </c>
+      <c r="E304" t="s">
         <v>461</v>
       </c>
-      <c r="E303" t="s">
+      <c r="F304" t="s">
         <v>462</v>
       </c>
-      <c r="F303" t="s">
+      <c r="G304" t="s">
+        <v>33</v>
+      </c>
+      <c r="H304" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306" t="s">
         <v>463</v>
-      </c>
-      <c r="G303" t="s">
-        <v>464</v>
-      </c>
-      <c r="H303" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
-      <c r="A305" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
-      <c r="B306" t="s">
-        <v>446</v>
-      </c>
-      <c r="C306" t="n">
-        <v>3.179</v>
-      </c>
-      <c r="D306" t="s">
-        <v>467</v>
-      </c>
-      <c r="E306" t="s">
-        <v>321</v>
-      </c>
-      <c r="F306" t="s">
-        <v>468</v>
-      </c>
-      <c r="G306" t="s">
-        <v>223</v>
-      </c>
-      <c r="H306" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="307" spans="1:8">
       <c r="B307" t="s">
+        <v>464</v>
+      </c>
+      <c r="C307" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D307" t="s">
+        <v>246</v>
+      </c>
+      <c r="E307" t="s">
+        <v>104</v>
+      </c>
+      <c r="F307" t="s">
+        <v>33</v>
+      </c>
+      <c r="G307" t="s">
+        <v>33</v>
+      </c>
+      <c r="H307" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="B310" t="s">
+        <v>466</v>
+      </c>
+      <c r="C310" t="n">
+        <v>3.762</v>
+      </c>
+      <c r="D310" t="s">
+        <v>467</v>
+      </c>
+      <c r="E310" t="s">
+        <v>468</v>
+      </c>
+      <c r="F310" t="s">
+        <v>469</v>
+      </c>
+      <c r="G310" t="s">
         <v>470</v>
       </c>
-      <c r="C307" t="n">
+      <c r="H310" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="A312" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="B313" t="s">
+        <v>452</v>
+      </c>
+      <c r="C313" t="n">
+        <v>3.179</v>
+      </c>
+      <c r="D313" t="s">
+        <v>473</v>
+      </c>
+      <c r="E313" t="s">
+        <v>321</v>
+      </c>
+      <c r="F313" t="s">
+        <v>474</v>
+      </c>
+      <c r="G313" t="s">
+        <v>223</v>
+      </c>
+      <c r="H313" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="B314" t="s">
+        <v>476</v>
+      </c>
+      <c r="C314" t="n">
         <v>3.2727</v>
       </c>
-      <c r="D307" t="s">
-        <v>471</v>
-      </c>
-      <c r="E307" t="s">
-        <v>472</v>
-      </c>
-      <c r="F307" t="s">
-        <v>473</v>
-      </c>
-      <c r="G307" t="s">
-        <v>474</v>
-      </c>
-      <c r="H307" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
-      <c r="B308" t="s">
-        <v>476</v>
-      </c>
-      <c r="C308" t="n">
-        <v>3.359</v>
-      </c>
-      <c r="D308" t="s">
+      <c r="D314" t="s">
         <v>477</v>
       </c>
-      <c r="E308" t="s">
+      <c r="E314" t="s">
         <v>478</v>
       </c>
-      <c r="F308" t="s">
+      <c r="F314" t="s">
         <v>479</v>
       </c>
-      <c r="G308" t="s">
-        <v>33</v>
-      </c>
-      <c r="H308" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
-      <c r="B309" t="s">
+      <c r="G314" t="s">
         <v>480</v>
       </c>
-      <c r="C309" t="n">
-        <v>3.818</v>
-      </c>
-      <c r="D309" t="s">
+      <c r="H314" t="s">
         <v>481</v>
-      </c>
-      <c r="E309" t="s">
-        <v>256</v>
-      </c>
-      <c r="F309" t="s">
-        <v>482</v>
-      </c>
-      <c r="G309" t="s">
-        <v>33</v>
-      </c>
-      <c r="H309" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
-      <c r="A311" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
-      <c r="B312" t="s">
-        <v>426</v>
-      </c>
-      <c r="C312" t="n">
-        <v>2.954</v>
-      </c>
-      <c r="D312" t="s">
-        <v>484</v>
-      </c>
-      <c r="E312" t="s">
-        <v>485</v>
-      </c>
-      <c r="F312" t="s">
-        <v>485</v>
-      </c>
-      <c r="G312" t="s">
-        <v>33</v>
-      </c>
-      <c r="H312" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
-      <c r="A314" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="315" spans="1:8">
       <c r="B315" t="s">
+        <v>482</v>
+      </c>
+      <c r="C315" t="n">
+        <v>3.359</v>
+      </c>
+      <c r="D315" t="s">
+        <v>483</v>
+      </c>
+      <c r="E315" t="s">
+        <v>484</v>
+      </c>
+      <c r="F315" t="s">
+        <v>485</v>
+      </c>
+      <c r="G315" t="s">
+        <v>33</v>
+      </c>
+      <c r="H315" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="B316" t="s">
+        <v>486</v>
+      </c>
+      <c r="C316" t="n">
+        <v>3.818</v>
+      </c>
+      <c r="D316" t="s">
         <v>487</v>
       </c>
-      <c r="C315" t="n">
+      <c r="E316" t="s">
+        <v>256</v>
+      </c>
+      <c r="F316" t="s">
+        <v>488</v>
+      </c>
+      <c r="G316" t="s">
+        <v>33</v>
+      </c>
+      <c r="H316" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="A318" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
+      <c r="B319" t="s">
+        <v>432</v>
+      </c>
+      <c r="C319" t="n">
+        <v>2.954</v>
+      </c>
+      <c r="D319" t="s">
+        <v>490</v>
+      </c>
+      <c r="E319" t="s">
+        <v>491</v>
+      </c>
+      <c r="F319" t="s">
+        <v>491</v>
+      </c>
+      <c r="G319" t="s">
+        <v>33</v>
+      </c>
+      <c r="H319" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="A321" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
+      <c r="B322" t="s">
+        <v>493</v>
+      </c>
+      <c r="C322" t="n">
         <v>2.909</v>
       </c>
-      <c r="D315" t="s">
-        <v>488</v>
-      </c>
-      <c r="E315" t="s">
-        <v>489</v>
-      </c>
-      <c r="F315" t="s">
-        <v>490</v>
-      </c>
-      <c r="G315" t="s">
-        <v>491</v>
-      </c>
-      <c r="H315" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
-      <c r="A317" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
-      <c r="B318" t="s">
-        <v>442</v>
-      </c>
-      <c r="C318" t="n">
+      <c r="D322" t="s">
+        <v>494</v>
+      </c>
+      <c r="E322" t="s">
+        <v>495</v>
+      </c>
+      <c r="F322" t="s">
+        <v>496</v>
+      </c>
+      <c r="G322" t="s">
+        <v>497</v>
+      </c>
+      <c r="H322" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="A324" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
+      <c r="B325" t="s">
+        <v>448</v>
+      </c>
+      <c r="C325" t="n">
         <v>2.971</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D325" t="s">
+        <v>499</v>
+      </c>
+      <c r="E325" t="s">
+        <v>500</v>
+      </c>
+      <c r="F325" t="s">
+        <v>283</v>
+      </c>
+      <c r="G325" t="s">
+        <v>501</v>
+      </c>
+      <c r="H325" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="A327" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="B328" t="s">
+        <v>407</v>
+      </c>
+      <c r="C328" t="n">
+        <v>3.1515</v>
+      </c>
+      <c r="D328" t="s">
+        <v>503</v>
+      </c>
+      <c r="E328" t="s">
+        <v>504</v>
+      </c>
+      <c r="F328" t="s">
+        <v>230</v>
+      </c>
+      <c r="G328" t="s">
+        <v>505</v>
+      </c>
+      <c r="H328" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="B331" t="s">
+        <v>426</v>
+      </c>
+      <c r="C331" t="n">
+        <v>3.062</v>
+      </c>
+      <c r="D331" t="s">
+        <v>507</v>
+      </c>
+      <c r="E331" t="s">
+        <v>141</v>
+      </c>
+      <c r="F331" t="s">
+        <v>508</v>
+      </c>
+      <c r="G331" t="s">
+        <v>509</v>
+      </c>
+      <c r="H331" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="A333" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="B334" t="s">
+        <v>476</v>
+      </c>
+      <c r="C334" t="n">
+        <v>3.265</v>
+      </c>
+      <c r="D334" t="s">
+        <v>511</v>
+      </c>
+      <c r="E334" t="s">
+        <v>512</v>
+      </c>
+      <c r="F334" t="s">
+        <v>513</v>
+      </c>
+      <c r="G334" t="s">
+        <v>33</v>
+      </c>
+      <c r="H334" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="B337" t="s">
         <v>493</v>
       </c>
-      <c r="E318" t="s">
-        <v>494</v>
-      </c>
-      <c r="F318" t="s">
-        <v>283</v>
-      </c>
-      <c r="G318" t="s">
-        <v>495</v>
-      </c>
-      <c r="H318" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
-      <c r="A320" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8">
-      <c r="B321" t="s">
-        <v>405</v>
-      </c>
-      <c r="C321" t="n">
-        <v>3.1515</v>
-      </c>
-      <c r="D321" t="s">
-        <v>497</v>
-      </c>
-      <c r="E321" t="s">
-        <v>498</v>
-      </c>
-      <c r="F321" t="s">
+      <c r="C337" t="n">
+        <v>2.7817</v>
+      </c>
+      <c r="D337" t="s">
+        <v>515</v>
+      </c>
+      <c r="E337" t="s">
+        <v>516</v>
+      </c>
+      <c r="F337" t="s">
+        <v>517</v>
+      </c>
+      <c r="G337" t="s">
+        <v>518</v>
+      </c>
+      <c r="H337" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="A339" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
+      <c r="B340" t="s">
+        <v>520</v>
+      </c>
+      <c r="C340" t="n">
+        <v>3.189</v>
+      </c>
+      <c r="D340" t="s">
+        <v>521</v>
+      </c>
+      <c r="E340" t="s">
+        <v>123</v>
+      </c>
+      <c r="F340" t="s">
+        <v>522</v>
+      </c>
+      <c r="G340" t="s">
+        <v>523</v>
+      </c>
+      <c r="H340" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="A342" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="B343" t="s">
+        <v>407</v>
+      </c>
+      <c r="C343" t="n">
+        <v>3.361</v>
+      </c>
+      <c r="D343" t="s">
+        <v>525</v>
+      </c>
+      <c r="E343" t="s">
+        <v>133</v>
+      </c>
+      <c r="F343" t="s">
         <v>230</v>
       </c>
-      <c r="G321" t="s">
-        <v>499</v>
-      </c>
-      <c r="H321" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8">
-      <c r="A323" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8">
-      <c r="B324" t="s">
-        <v>420</v>
-      </c>
-      <c r="C324" t="n">
-        <v>3.062</v>
-      </c>
-      <c r="D324" t="s">
-        <v>501</v>
-      </c>
-      <c r="E324" t="s">
-        <v>141</v>
-      </c>
-      <c r="F324" t="s">
-        <v>502</v>
-      </c>
-      <c r="G324" t="s">
-        <v>503</v>
-      </c>
-      <c r="H324" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8">
-      <c r="A326" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8">
-      <c r="B327" t="s">
-        <v>470</v>
-      </c>
-      <c r="C327" t="n">
-        <v>3.265</v>
-      </c>
-      <c r="D327" t="s">
-        <v>505</v>
-      </c>
-      <c r="E327" t="s">
-        <v>506</v>
-      </c>
-      <c r="F327" t="s">
-        <v>507</v>
-      </c>
-      <c r="G327" t="s">
-        <v>33</v>
-      </c>
-      <c r="H327" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8">
-      <c r="A329" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8">
-      <c r="B330" t="s">
-        <v>487</v>
-      </c>
-      <c r="C330" t="n">
-        <v>2.7817</v>
-      </c>
-      <c r="D330" t="s">
-        <v>509</v>
-      </c>
-      <c r="E330" t="s">
-        <v>510</v>
-      </c>
-      <c r="F330" t="s">
-        <v>511</v>
-      </c>
-      <c r="G330" t="s">
-        <v>512</v>
-      </c>
-      <c r="H330" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8">
-      <c r="A332" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8">
-      <c r="B333" t="s">
-        <v>514</v>
-      </c>
-      <c r="C333" t="n">
-        <v>3.189</v>
-      </c>
-      <c r="D333" t="s">
-        <v>515</v>
-      </c>
-      <c r="E333" t="s">
-        <v>123</v>
-      </c>
-      <c r="F333" t="s">
-        <v>516</v>
-      </c>
-      <c r="G333" t="s">
-        <v>517</v>
-      </c>
-      <c r="H333" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8">
-      <c r="A335" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8">
-      <c r="B336" t="s">
-        <v>405</v>
-      </c>
-      <c r="C336" t="n">
-        <v>3.361</v>
-      </c>
-      <c r="D336" t="s">
-        <v>519</v>
-      </c>
-      <c r="E336" t="s">
-        <v>128</v>
-      </c>
-      <c r="F336" t="s">
-        <v>230</v>
-      </c>
-      <c r="G336" t="s">
-        <v>33</v>
-      </c>
-      <c r="H336" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8">
-      <c r="A338" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8">
-      <c r="B339" t="s">
-        <v>420</v>
-      </c>
-      <c r="C339" t="n">
+      <c r="G343" t="s">
+        <v>33</v>
+      </c>
+      <c r="H343" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
+      <c r="A345" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="B346" t="s">
+        <v>426</v>
+      </c>
+      <c r="C346" t="n">
         <v>3.615</v>
       </c>
-      <c r="D339" t="s">
-        <v>521</v>
-      </c>
-      <c r="E339" t="s">
-        <v>522</v>
-      </c>
-      <c r="F339" t="s">
-        <v>479</v>
-      </c>
-      <c r="G339" t="s">
-        <v>33</v>
-      </c>
-      <c r="H339" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8">
-      <c r="A341" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8">
-      <c r="B342" t="s">
-        <v>524</v>
-      </c>
-      <c r="C342" t="n">
-        <v>3.074</v>
-      </c>
-      <c r="D342" t="s">
-        <v>525</v>
-      </c>
-      <c r="E342" t="s">
-        <v>137</v>
-      </c>
-      <c r="F342" t="s">
-        <v>240</v>
-      </c>
-      <c r="G342" t="s">
-        <v>33</v>
-      </c>
-      <c r="H342" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8">
-      <c r="A344" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8">
-      <c r="B345" t="s">
+      <c r="D346" t="s">
         <v>527</v>
       </c>
-      <c r="C345" t="n">
-        <v>2.868</v>
-      </c>
-      <c r="D345" t="s">
+      <c r="E346" t="s">
         <v>528</v>
       </c>
-      <c r="E345" t="s">
+      <c r="F346" t="s">
+        <v>485</v>
+      </c>
+      <c r="G346" t="s">
+        <v>33</v>
+      </c>
+      <c r="H346" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="A348" t="s">
         <v>529</v>
-      </c>
-      <c r="F345" t="s">
-        <v>530</v>
-      </c>
-      <c r="G345" t="s">
-        <v>531</v>
-      </c>
-      <c r="H345" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8">
-      <c r="A347" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8">
-      <c r="B348" t="s">
-        <v>534</v>
-      </c>
-      <c r="C348" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="D348" t="s">
-        <v>535</v>
-      </c>
-      <c r="E348" t="s">
-        <v>536</v>
-      </c>
-      <c r="F348" t="s">
-        <v>537</v>
-      </c>
-      <c r="G348" t="s">
-        <v>538</v>
-      </c>
-      <c r="H348" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="349" spans="1:8">
       <c r="B349" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="C349" t="n">
-        <v>2.346</v>
+        <v>3.074</v>
       </c>
       <c r="D349" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="E349" t="s">
-        <v>542</v>
+        <v>137</v>
       </c>
       <c r="F349" t="s">
-        <v>543</v>
+        <v>240</v>
       </c>
       <c r="G349" t="s">
-        <v>544</v>
+        <v>33</v>
       </c>
       <c r="H349" t="s">
-        <v>545</v>
+        <v>33</v>
       </c>
     </row>
     <row r="351" spans="1:8">
       <c r="A351" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
     </row>
     <row r="352" spans="1:8">
       <c r="B352" t="s">
+        <v>533</v>
+      </c>
+      <c r="C352" t="n">
+        <v>2.868</v>
+      </c>
+      <c r="D352" t="s">
         <v>534</v>
       </c>
-      <c r="C352" t="n">
-        <v>3.483</v>
-      </c>
-      <c r="D352" t="s">
-        <v>547</v>
-      </c>
       <c r="E352" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="F352" t="s">
-        <v>448</v>
+        <v>536</v>
       </c>
       <c r="G352" t="s">
-        <v>33</v>
+        <v>537</v>
       </c>
       <c r="H352" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8">
-      <c r="B353" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
+      <c r="A354" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
+      <c r="B355" t="s">
         <v>540</v>
       </c>
-      <c r="C353" t="n">
-        <v>2.407</v>
-      </c>
-      <c r="D353" t="s">
-        <v>549</v>
-      </c>
-      <c r="E353" t="s">
-        <v>550</v>
-      </c>
-      <c r="F353" t="s">
-        <v>551</v>
-      </c>
-      <c r="G353" t="s">
-        <v>552</v>
-      </c>
-      <c r="H353" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8">
-      <c r="A355" t="s">
-        <v>554</v>
+      <c r="C355" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D355" t="s">
+        <v>541</v>
+      </c>
+      <c r="E355" t="s">
+        <v>542</v>
+      </c>
+      <c r="F355" t="s">
+        <v>543</v>
+      </c>
+      <c r="G355" t="s">
+        <v>544</v>
+      </c>
+      <c r="H355" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="356" spans="1:8">
       <c r="B356" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="C356" t="n">
-        <v>2.622</v>
+        <v>2.346</v>
       </c>
       <c r="D356" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="E356" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="F356" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="G356" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="H356" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="358" spans="1:8">
       <c r="A358" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="359" spans="1:8">
       <c r="B359" t="s">
+        <v>540</v>
+      </c>
+      <c r="C359" t="n">
+        <v>3.483</v>
+      </c>
+      <c r="D359" t="s">
+        <v>553</v>
+      </c>
+      <c r="E359" t="s">
+        <v>554</v>
+      </c>
+      <c r="F359" t="s">
+        <v>454</v>
+      </c>
+      <c r="G359" t="s">
+        <v>33</v>
+      </c>
+      <c r="H359" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
+      <c r="B360" t="s">
+        <v>546</v>
+      </c>
+      <c r="C360" t="n">
+        <v>2.407</v>
+      </c>
+      <c r="D360" t="s">
+        <v>555</v>
+      </c>
+      <c r="E360" t="s">
+        <v>556</v>
+      </c>
+      <c r="F360" t="s">
+        <v>557</v>
+      </c>
+      <c r="G360" t="s">
+        <v>558</v>
+      </c>
+      <c r="H360" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
+      <c r="A362" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
+      <c r="B363" t="s">
+        <v>540</v>
+      </c>
+      <c r="C363" t="n">
+        <v>2.622</v>
+      </c>
+      <c r="D363" t="s">
         <v>561</v>
       </c>
-      <c r="C359" t="n">
-        <v>4</v>
-      </c>
-      <c r="D359" t="s">
-        <v>192</v>
-      </c>
-      <c r="E359" t="s">
-        <v>33</v>
-      </c>
-      <c r="F359" t="s">
-        <v>33</v>
-      </c>
-      <c r="G359" t="s">
-        <v>33</v>
-      </c>
-      <c r="H359" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8">
-      <c r="A361" t="s">
+      <c r="E363" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="362" spans="1:8">
-      <c r="B362" t="s">
+      <c r="F363" t="s">
         <v>563</v>
       </c>
-      <c r="C362" t="n">
-        <v>2.543</v>
-      </c>
-      <c r="D362" t="s">
+      <c r="G363" t="s">
         <v>564</v>
       </c>
-      <c r="E362" t="s">
+      <c r="H363" t="s">
         <v>565</v>
       </c>
-      <c r="F362" t="s">
+    </row>
+    <row r="365" spans="1:8">
+      <c r="A365" t="s">
         <v>566</v>
-      </c>
-      <c r="G362" t="s">
-        <v>567</v>
-      </c>
-      <c r="H362" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8">
-      <c r="A364" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8">
-      <c r="B365" t="s">
-        <v>570</v>
-      </c>
-      <c r="C365" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="D365" t="s">
-        <v>185</v>
-      </c>
-      <c r="E365" t="s">
-        <v>186</v>
-      </c>
-      <c r="F365" t="s">
-        <v>33</v>
-      </c>
-      <c r="G365" t="s">
-        <v>33</v>
-      </c>
-      <c r="H365" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="366" spans="1:8">
       <c r="B366" t="s">
+        <v>567</v>
+      </c>
+      <c r="C366" t="n">
+        <v>4</v>
+      </c>
+      <c r="D366" t="s">
+        <v>192</v>
+      </c>
+      <c r="E366" t="s">
+        <v>33</v>
+      </c>
+      <c r="F366" t="s">
+        <v>33</v>
+      </c>
+      <c r="G366" t="s">
+        <v>33</v>
+      </c>
+      <c r="H366" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
+      <c r="A368" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
+      <c r="B369" t="s">
+        <v>569</v>
+      </c>
+      <c r="C369" t="n">
+        <v>2.543</v>
+      </c>
+      <c r="D369" t="s">
+        <v>570</v>
+      </c>
+      <c r="E369" t="s">
         <v>571</v>
       </c>
-      <c r="C366" t="n">
-        <v>3.897</v>
-      </c>
-      <c r="D366" t="s">
+      <c r="F369" t="s">
         <v>572</v>
       </c>
-      <c r="E366" t="s">
+      <c r="G369" t="s">
         <v>573</v>
       </c>
-      <c r="F366" t="s">
-        <v>33</v>
-      </c>
-      <c r="G366" t="s">
-        <v>33</v>
-      </c>
-      <c r="H366" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8">
-      <c r="B367" t="s">
-        <v>563</v>
-      </c>
-      <c r="C367" t="n">
-        <v>2.8477</v>
-      </c>
-      <c r="D367" t="s">
+      <c r="H369" t="s">
         <v>574</v>
       </c>
-      <c r="E367" t="s">
+    </row>
+    <row r="371" spans="1:8">
+      <c r="A371" t="s">
         <v>575</v>
       </c>
-      <c r="F367" t="s">
+    </row>
+    <row r="372" spans="1:8">
+      <c r="B372" t="s">
         <v>576</v>
       </c>
-      <c r="G367" t="s">
-        <v>577</v>
-      </c>
-      <c r="H367" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8">
-      <c r="A369" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8">
-      <c r="B370" t="s">
-        <v>570</v>
-      </c>
-      <c r="C370" t="n">
-        <v>3.2805</v>
-      </c>
-      <c r="D370" t="s">
-        <v>580</v>
-      </c>
-      <c r="E370" t="s">
-        <v>581</v>
-      </c>
-      <c r="F370" t="s">
-        <v>413</v>
-      </c>
-      <c r="G370" t="s">
-        <v>582</v>
-      </c>
-      <c r="H370" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8">
-      <c r="A372" t="s">
-        <v>583</v>
+      <c r="C372" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="D372" t="s">
+        <v>185</v>
+      </c>
+      <c r="E372" t="s">
+        <v>186</v>
+      </c>
+      <c r="F372" t="s">
+        <v>33</v>
+      </c>
+      <c r="G372" t="s">
+        <v>33</v>
+      </c>
+      <c r="H372" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="373" spans="1:8">
       <c r="B373" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="C373" t="n">
-        <v>3.353</v>
+        <v>3.897</v>
       </c>
       <c r="D373" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="E373" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="F373" t="s">
         <v>33</v>
@@ -7033,121 +7066,121 @@
     </row>
     <row r="374" spans="1:8">
       <c r="B374" t="s">
+        <v>569</v>
+      </c>
+      <c r="C374" t="n">
+        <v>2.8477</v>
+      </c>
+      <c r="D374" t="s">
+        <v>580</v>
+      </c>
+      <c r="E374" t="s">
+        <v>581</v>
+      </c>
+      <c r="F374" t="s">
+        <v>582</v>
+      </c>
+      <c r="G374" t="s">
+        <v>583</v>
+      </c>
+      <c r="H374" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
+      <c r="A376" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
+      <c r="B377" t="s">
+        <v>576</v>
+      </c>
+      <c r="C377" t="n">
+        <v>3.2805</v>
+      </c>
+      <c r="D377" t="s">
+        <v>586</v>
+      </c>
+      <c r="E377" t="s">
         <v>587</v>
       </c>
-      <c r="C374" t="n">
+      <c r="F377" t="s">
+        <v>415</v>
+      </c>
+      <c r="G377" t="s">
+        <v>588</v>
+      </c>
+      <c r="H377" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8">
+      <c r="A379" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
+      <c r="B380" t="s">
+        <v>590</v>
+      </c>
+      <c r="C380" t="n">
+        <v>3.353</v>
+      </c>
+      <c r="D380" t="s">
+        <v>591</v>
+      </c>
+      <c r="E380" t="s">
+        <v>592</v>
+      </c>
+      <c r="F380" t="s">
+        <v>33</v>
+      </c>
+      <c r="G380" t="s">
+        <v>33</v>
+      </c>
+      <c r="H380" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
+      <c r="B381" t="s">
+        <v>593</v>
+      </c>
+      <c r="C381" t="n">
         <v>3.361</v>
       </c>
-      <c r="D374" t="s">
+      <c r="D381" t="s">
         <v>141</v>
       </c>
-      <c r="E374" t="s">
-        <v>588</v>
-      </c>
-      <c r="F374" t="s">
+      <c r="E381" t="s">
+        <v>594</v>
+      </c>
+      <c r="F381" t="s">
         <v>66</v>
       </c>
-      <c r="G374" t="s">
-        <v>589</v>
-      </c>
-      <c r="H374" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8">
-      <c r="B375" t="s">
-        <v>590</v>
-      </c>
-      <c r="C375" t="n">
-        <v>3.412</v>
-      </c>
-      <c r="D375" t="s">
-        <v>591</v>
-      </c>
-      <c r="E375" t="s">
-        <v>585</v>
-      </c>
-      <c r="F375" t="s">
-        <v>592</v>
-      </c>
-      <c r="G375" t="s">
-        <v>33</v>
-      </c>
-      <c r="H375" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8">
-      <c r="B376" t="s">
-        <v>593</v>
-      </c>
-      <c r="C376" t="n">
-        <v>3.529</v>
-      </c>
-      <c r="D376" t="s">
-        <v>494</v>
-      </c>
-      <c r="E376" t="s">
-        <v>585</v>
-      </c>
-      <c r="F376" t="s">
-        <v>594</v>
-      </c>
-      <c r="G376" t="s">
-        <v>33</v>
-      </c>
-      <c r="H376" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8">
-      <c r="A378" t="s">
+      <c r="G381" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="379" spans="1:8">
-      <c r="B379" t="s">
-        <v>596</v>
-      </c>
-      <c r="C379" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D379" t="s">
-        <v>246</v>
-      </c>
-      <c r="E379" t="s">
-        <v>104</v>
-      </c>
-      <c r="F379" t="s">
-        <v>33</v>
-      </c>
-      <c r="G379" t="s">
-        <v>33</v>
-      </c>
-      <c r="H379" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8">
-      <c r="A381" t="s">
-        <v>597</v>
+      <c r="H381" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="382" spans="1:8">
       <c r="B382" t="s">
+        <v>596</v>
+      </c>
+      <c r="C382" t="n">
+        <v>3.412</v>
+      </c>
+      <c r="D382" t="s">
+        <v>597</v>
+      </c>
+      <c r="E382" t="s">
+        <v>591</v>
+      </c>
+      <c r="F382" t="s">
         <v>598</v>
-      </c>
-      <c r="C382" t="n">
-        <v>3.929</v>
-      </c>
-      <c r="D382" t="s">
-        <v>599</v>
-      </c>
-      <c r="E382" t="s">
-        <v>44</v>
-      </c>
-      <c r="F382" t="s">
-        <v>33</v>
       </c>
       <c r="G382" t="s">
         <v>33</v>
@@ -7158,98 +7191,98 @@
     </row>
     <row r="383" spans="1:8">
       <c r="B383" t="s">
+        <v>599</v>
+      </c>
+      <c r="C383" t="n">
+        <v>3.529</v>
+      </c>
+      <c r="D383" t="s">
+        <v>500</v>
+      </c>
+      <c r="E383" t="s">
+        <v>591</v>
+      </c>
+      <c r="F383" t="s">
         <v>600</v>
       </c>
-      <c r="C383" t="n">
-        <v>3.893</v>
-      </c>
-      <c r="D383" t="s">
-        <v>599</v>
-      </c>
-      <c r="E383" t="s">
+      <c r="G383" t="s">
+        <v>33</v>
+      </c>
+      <c r="H383" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
+      <c r="A385" t="s">
         <v>601</v>
       </c>
-      <c r="F383" t="s">
-        <v>601</v>
-      </c>
-      <c r="G383" t="s">
-        <v>33</v>
-      </c>
-      <c r="H383" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8">
-      <c r="B384" t="s">
+    </row>
+    <row r="386" spans="1:8">
+      <c r="B386" t="s">
         <v>602</v>
       </c>
-      <c r="C384" t="n">
-        <v>3.7275</v>
-      </c>
-      <c r="D384" t="s">
+      <c r="C386" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D386" t="s">
+        <v>246</v>
+      </c>
+      <c r="E386" t="s">
+        <v>104</v>
+      </c>
+      <c r="F386" t="s">
+        <v>33</v>
+      </c>
+      <c r="G386" t="s">
+        <v>33</v>
+      </c>
+      <c r="H386" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
+      <c r="A388" t="s">
         <v>603</v>
       </c>
-      <c r="E384" t="s">
-        <v>104</v>
-      </c>
-      <c r="F384" t="s">
+    </row>
+    <row r="389" spans="1:8">
+      <c r="B389" t="s">
         <v>604</v>
       </c>
-      <c r="G384" t="s">
-        <v>33</v>
-      </c>
-      <c r="H384" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8">
-      <c r="A386" t="s">
+      <c r="C389" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="D389" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="387" spans="1:8">
-      <c r="B387" t="s">
-        <v>606</v>
-      </c>
-      <c r="C387" t="n">
-        <v>3.622</v>
-      </c>
-      <c r="D387" t="s">
-        <v>607</v>
-      </c>
-      <c r="E387" t="s">
-        <v>608</v>
-      </c>
-      <c r="F387" t="s">
-        <v>33</v>
-      </c>
-      <c r="G387" t="s">
-        <v>33</v>
-      </c>
-      <c r="H387" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8">
-      <c r="A389" t="s">
-        <v>609</v>
+      <c r="E389" t="s">
+        <v>44</v>
+      </c>
+      <c r="F389" t="s">
+        <v>33</v>
+      </c>
+      <c r="G389" t="s">
+        <v>33</v>
+      </c>
+      <c r="H389" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="390" spans="1:8">
       <c r="B390" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C390" t="n">
-        <v>3.833</v>
+        <v>3.893</v>
       </c>
       <c r="D390" t="s">
-        <v>185</v>
+        <v>605</v>
       </c>
       <c r="E390" t="s">
-        <v>186</v>
+        <v>607</v>
       </c>
       <c r="F390" t="s">
-        <v>33</v>
+        <v>607</v>
       </c>
       <c r="G390" t="s">
         <v>33</v>
@@ -7260,317 +7293,276 @@
     </row>
     <row r="391" spans="1:8">
       <c r="B391" t="s">
-        <v>400</v>
+        <v>608</v>
       </c>
       <c r="C391" t="n">
-        <v>3.25</v>
+        <v>3.7275</v>
       </c>
       <c r="D391" t="s">
-        <v>427</v>
+        <v>609</v>
       </c>
       <c r="E391" t="s">
+        <v>104</v>
+      </c>
+      <c r="F391" t="s">
+        <v>610</v>
+      </c>
+      <c r="G391" t="s">
+        <v>33</v>
+      </c>
+      <c r="H391" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
+      <c r="A393" t="s">
         <v>611</v>
       </c>
-      <c r="F391" t="s">
-        <v>66</v>
-      </c>
-      <c r="G391" t="s">
+    </row>
+    <row r="394" spans="1:8">
+      <c r="B394" t="s">
         <v>612</v>
       </c>
-      <c r="H391" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8">
-      <c r="B392" t="s">
-        <v>403</v>
-      </c>
-      <c r="C392" t="n">
-        <v>3.059</v>
-      </c>
-      <c r="D392" t="s">
-        <v>585</v>
-      </c>
-      <c r="E392" t="s">
+      <c r="C394" t="n">
+        <v>3.622</v>
+      </c>
+      <c r="D394" t="s">
         <v>613</v>
       </c>
-      <c r="F392" t="s">
+      <c r="E394" t="s">
         <v>614</v>
       </c>
-      <c r="G392" t="s">
-        <v>495</v>
-      </c>
-      <c r="H392" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8">
-      <c r="A394" t="s">
+      <c r="F394" t="s">
+        <v>33</v>
+      </c>
+      <c r="G394" t="s">
+        <v>33</v>
+      </c>
+      <c r="H394" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8">
+      <c r="A396" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
-      <c r="B395" t="s">
-        <v>400</v>
-      </c>
-      <c r="C395" t="n">
-        <v>3.318</v>
-      </c>
-      <c r="D395" t="s">
-        <v>333</v>
-      </c>
-      <c r="E395" t="s">
+    <row r="397" spans="1:8">
+      <c r="B397" t="s">
         <v>616</v>
       </c>
-      <c r="F395" t="s">
-        <v>33</v>
-      </c>
-      <c r="G395" t="s">
-        <v>33</v>
-      </c>
-      <c r="H395" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8">
-      <c r="A397" t="s">
-        <v>617</v>
+      <c r="C397" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="D397" t="s">
+        <v>185</v>
+      </c>
+      <c r="E397" t="s">
+        <v>186</v>
+      </c>
+      <c r="F397" t="s">
+        <v>33</v>
+      </c>
+      <c r="G397" t="s">
+        <v>33</v>
+      </c>
+      <c r="H397" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="398" spans="1:8">
       <c r="B398" t="s">
+        <v>400</v>
+      </c>
+      <c r="C398" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D398" t="s">
+        <v>433</v>
+      </c>
+      <c r="E398" t="s">
+        <v>617</v>
+      </c>
+      <c r="F398" t="s">
+        <v>66</v>
+      </c>
+      <c r="G398" t="s">
         <v>618</v>
       </c>
-      <c r="C398" t="n">
-        <v>3.429</v>
-      </c>
-      <c r="D398" t="s">
+      <c r="H398" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8">
+      <c r="B399" t="s">
+        <v>403</v>
+      </c>
+      <c r="C399" t="n">
+        <v>3.059</v>
+      </c>
+      <c r="D399" t="s">
+        <v>591</v>
+      </c>
+      <c r="E399" t="s">
         <v>619</v>
       </c>
-      <c r="E398" t="s">
-        <v>99</v>
-      </c>
-      <c r="F398" t="s">
+      <c r="F399" t="s">
         <v>620</v>
       </c>
-      <c r="G398" t="s">
-        <v>33</v>
-      </c>
-      <c r="H398" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8">
-      <c r="A400" t="s">
+      <c r="G399" t="s">
+        <v>501</v>
+      </c>
+      <c r="H399" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
+      <c r="A401" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
-      <c r="B401" t="s">
-        <v>561</v>
-      </c>
-      <c r="C401" t="n">
-        <v>3.2775</v>
-      </c>
-      <c r="D401" t="s">
+    <row r="402" spans="1:8">
+      <c r="B402" t="s">
+        <v>405</v>
+      </c>
+      <c r="C402" t="n">
+        <v>3.773</v>
+      </c>
+      <c r="D402" t="s">
         <v>622</v>
       </c>
-      <c r="E401" t="s">
+      <c r="E402" t="s">
         <v>623</v>
       </c>
-      <c r="F401" t="s">
-        <v>33</v>
-      </c>
-      <c r="G401" t="s">
-        <v>33</v>
-      </c>
-      <c r="H401" t="s">
+      <c r="F402" t="s">
+        <v>33</v>
+      </c>
+      <c r="G402" t="s">
+        <v>33</v>
+      </c>
+      <c r="H402" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="403" spans="1:8">
-      <c r="A403" t="s">
+      <c r="B403" t="s">
+        <v>400</v>
+      </c>
+      <c r="C403" t="n">
+        <v>3.318</v>
+      </c>
+      <c r="D403" t="s">
+        <v>333</v>
+      </c>
+      <c r="E403" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="404" spans="1:8">
-      <c r="B404" t="s">
+      <c r="F403" t="s">
+        <v>33</v>
+      </c>
+      <c r="G403" t="s">
+        <v>33</v>
+      </c>
+      <c r="H403" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8">
+      <c r="A405" t="s">
         <v>625</v>
-      </c>
-      <c r="C404" t="n">
-        <v>3.1617</v>
-      </c>
-      <c r="D404" t="s">
-        <v>626</v>
-      </c>
-      <c r="E404" t="s">
-        <v>627</v>
-      </c>
-      <c r="F404" t="s">
-        <v>628</v>
-      </c>
-      <c r="G404" t="s">
-        <v>629</v>
-      </c>
-      <c r="H404" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8">
-      <c r="B405" t="s">
-        <v>630</v>
-      </c>
-      <c r="C405" t="n">
-        <v>3.647</v>
-      </c>
-      <c r="D405" t="s">
-        <v>586</v>
-      </c>
-      <c r="E405" t="s">
-        <v>585</v>
-      </c>
-      <c r="F405" t="s">
-        <v>33</v>
-      </c>
-      <c r="G405" t="s">
-        <v>33</v>
-      </c>
-      <c r="H405" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="406" spans="1:8">
       <c r="B406" t="s">
-        <v>410</v>
+        <v>626</v>
       </c>
       <c r="C406" t="n">
-        <v>3.18</v>
+        <v>3.429</v>
       </c>
       <c r="D406" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E406" t="s">
-        <v>427</v>
+        <v>99</v>
       </c>
       <c r="F406" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G406" t="s">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c r="H406" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
-      <c r="B407" t="s">
-        <v>633</v>
-      </c>
-      <c r="C407" t="n">
-        <v>3.192</v>
-      </c>
-      <c r="D407" t="s">
-        <v>634</v>
-      </c>
-      <c r="E407" t="s">
-        <v>634</v>
-      </c>
-      <c r="F407" t="s">
-        <v>635</v>
-      </c>
-      <c r="G407" t="s">
-        <v>33</v>
-      </c>
-      <c r="H407" t="s">
-        <v>378</v>
-      </c>
-    </row>
     <row r="408" spans="1:8">
-      <c r="B408" t="s">
-        <v>636</v>
-      </c>
-      <c r="C408" t="n">
-        <v>3.4665</v>
-      </c>
-      <c r="D408" t="s">
-        <v>637</v>
-      </c>
-      <c r="E408" t="s">
-        <v>141</v>
-      </c>
-      <c r="F408" t="s">
-        <v>21</v>
-      </c>
-      <c r="G408" t="s">
-        <v>33</v>
-      </c>
-      <c r="H408" t="s">
-        <v>33</v>
+      <c r="A408" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="409" spans="1:8">
       <c r="B409" t="s">
-        <v>638</v>
+        <v>567</v>
       </c>
       <c r="C409" t="n">
-        <v>3.1605</v>
+        <v>3.2775</v>
       </c>
       <c r="D409" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="E409" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="F409" t="s">
-        <v>230</v>
+        <v>33</v>
       </c>
       <c r="G409" t="s">
-        <v>386</v>
+        <v>33</v>
       </c>
       <c r="H409" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
-      <c r="B410" t="s">
-        <v>641</v>
-      </c>
-      <c r="C410" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="D410" t="s">
-        <v>320</v>
-      </c>
-      <c r="E410" t="s">
-        <v>642</v>
-      </c>
-      <c r="F410" t="s">
-        <v>643</v>
-      </c>
-      <c r="G410" t="s">
-        <v>33</v>
-      </c>
-      <c r="H410" t="s">
-        <v>33</v>
+    <row r="411" spans="1:8">
+      <c r="A411" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="412" spans="1:8">
-      <c r="A412" t="s">
-        <v>644</v>
+      <c r="B412" t="s">
+        <v>633</v>
+      </c>
+      <c r="C412" t="n">
+        <v>3.1617</v>
+      </c>
+      <c r="D412" t="s">
+        <v>634</v>
+      </c>
+      <c r="E412" t="s">
+        <v>635</v>
+      </c>
+      <c r="F412" t="s">
+        <v>636</v>
+      </c>
+      <c r="G412" t="s">
+        <v>637</v>
+      </c>
+      <c r="H412" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="413" spans="1:8">
       <c r="B413" t="s">
-        <v>561</v>
+        <v>638</v>
       </c>
       <c r="C413" t="n">
-        <v>3.318</v>
+        <v>3.647</v>
       </c>
       <c r="D413" t="s">
-        <v>333</v>
+        <v>592</v>
       </c>
       <c r="E413" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
       <c r="F413" t="s">
         <v>33</v>
@@ -7582,288 +7574,370 @@
         <v>33</v>
       </c>
     </row>
+    <row r="414" spans="1:8">
+      <c r="B414" t="s">
+        <v>412</v>
+      </c>
+      <c r="C414" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="D414" t="s">
+        <v>639</v>
+      </c>
+      <c r="E414" t="s">
+        <v>433</v>
+      </c>
+      <c r="F414" t="s">
+        <v>640</v>
+      </c>
+      <c r="G414" t="s">
+        <v>223</v>
+      </c>
+      <c r="H414" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="415" spans="1:8">
-      <c r="A415" t="s">
-        <v>645</v>
+      <c r="B415" t="s">
+        <v>641</v>
+      </c>
+      <c r="C415" t="n">
+        <v>3.192</v>
+      </c>
+      <c r="D415" t="s">
+        <v>642</v>
+      </c>
+      <c r="E415" t="s">
+        <v>642</v>
+      </c>
+      <c r="F415" t="s">
+        <v>643</v>
+      </c>
+      <c r="G415" t="s">
+        <v>33</v>
+      </c>
+      <c r="H415" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="416" spans="1:8">
       <c r="B416" t="s">
+        <v>644</v>
+      </c>
+      <c r="C416" t="n">
+        <v>3.4665</v>
+      </c>
+      <c r="D416" t="s">
+        <v>645</v>
+      </c>
+      <c r="E416" t="s">
+        <v>141</v>
+      </c>
+      <c r="F416" t="s">
+        <v>21</v>
+      </c>
+      <c r="G416" t="s">
+        <v>33</v>
+      </c>
+      <c r="H416" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8">
+      <c r="B417" t="s">
         <v>646</v>
       </c>
-      <c r="C416" t="n">
+      <c r="C417" t="n">
+        <v>3.1605</v>
+      </c>
+      <c r="D417" t="s">
+        <v>647</v>
+      </c>
+      <c r="E417" t="s">
+        <v>648</v>
+      </c>
+      <c r="F417" t="s">
+        <v>230</v>
+      </c>
+      <c r="G417" t="s">
+        <v>386</v>
+      </c>
+      <c r="H417" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8">
+      <c r="B418" t="s">
+        <v>649</v>
+      </c>
+      <c r="C418" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="D418" t="s">
+        <v>320</v>
+      </c>
+      <c r="E418" t="s">
+        <v>650</v>
+      </c>
+      <c r="F418" t="s">
+        <v>651</v>
+      </c>
+      <c r="G418" t="s">
+        <v>33</v>
+      </c>
+      <c r="H418" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8">
+      <c r="A420" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8">
+      <c r="B421" t="s">
+        <v>567</v>
+      </c>
+      <c r="C421" t="n">
+        <v>3.318</v>
+      </c>
+      <c r="D421" t="s">
+        <v>333</v>
+      </c>
+      <c r="E421" t="s">
+        <v>624</v>
+      </c>
+      <c r="F421" t="s">
+        <v>33</v>
+      </c>
+      <c r="G421" t="s">
+        <v>33</v>
+      </c>
+      <c r="H421" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
+      <c r="A423" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8">
+      <c r="B424" t="s">
+        <v>654</v>
+      </c>
+      <c r="C424" t="n">
         <v>3.2865</v>
       </c>
-      <c r="D416" t="s">
-        <v>647</v>
-      </c>
-      <c r="E416" t="s">
-        <v>648</v>
-      </c>
-      <c r="F416" t="s">
-        <v>649</v>
-      </c>
-      <c r="G416" t="s">
-        <v>33</v>
-      </c>
-      <c r="H416" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8">
-      <c r="A418" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8">
-      <c r="B419" t="s">
-        <v>410</v>
-      </c>
-      <c r="C419" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="D419" t="s">
-        <v>651</v>
-      </c>
-      <c r="E419" t="s">
-        <v>333</v>
-      </c>
-      <c r="F419" t="s">
-        <v>303</v>
-      </c>
-      <c r="G419" t="s">
-        <v>33</v>
-      </c>
-      <c r="H419" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="420" spans="1:8">
-      <c r="B420" t="s">
-        <v>561</v>
-      </c>
-      <c r="C420" t="n">
-        <v>4</v>
-      </c>
-      <c r="D420" t="s">
-        <v>192</v>
-      </c>
-      <c r="E420" t="s">
-        <v>33</v>
-      </c>
-      <c r="F420" t="s">
-        <v>33</v>
-      </c>
-      <c r="G420" t="s">
-        <v>33</v>
-      </c>
-      <c r="H420" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8">
-      <c r="A422" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8">
-      <c r="B423" t="s">
-        <v>610</v>
-      </c>
-      <c r="C423" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="D423" t="s">
-        <v>185</v>
-      </c>
-      <c r="E423" t="s">
-        <v>186</v>
-      </c>
-      <c r="F423" t="s">
-        <v>33</v>
-      </c>
-      <c r="G423" t="s">
-        <v>33</v>
-      </c>
-      <c r="H423" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8">
-      <c r="A425" t="s">
-        <v>654</v>
+      <c r="D424" t="s">
+        <v>655</v>
+      </c>
+      <c r="E424" t="s">
+        <v>656</v>
+      </c>
+      <c r="F424" t="s">
+        <v>657</v>
+      </c>
+      <c r="G424" t="s">
+        <v>33</v>
+      </c>
+      <c r="H424" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="426" spans="1:8">
-      <c r="B426" t="s">
-        <v>305</v>
-      </c>
-      <c r="C426" t="n">
-        <v>3.524</v>
-      </c>
-      <c r="D426" t="s">
-        <v>178</v>
-      </c>
-      <c r="E426" t="s">
-        <v>46</v>
-      </c>
-      <c r="F426" t="s">
-        <v>33</v>
-      </c>
-      <c r="G426" t="s">
-        <v>33</v>
-      </c>
-      <c r="H426" t="s">
-        <v>33</v>
+      <c r="A426" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="427" spans="1:8">
       <c r="B427" t="s">
-        <v>655</v>
+        <v>412</v>
       </c>
       <c r="C427" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="D427" t="s">
+        <v>659</v>
+      </c>
+      <c r="E427" t="s">
+        <v>333</v>
+      </c>
+      <c r="F427" t="s">
+        <v>303</v>
+      </c>
+      <c r="G427" t="s">
+        <v>33</v>
+      </c>
+      <c r="H427" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
+      <c r="B428" t="s">
+        <v>567</v>
+      </c>
+      <c r="C428" t="n">
+        <v>4</v>
+      </c>
+      <c r="D428" t="s">
+        <v>192</v>
+      </c>
+      <c r="E428" t="s">
+        <v>33</v>
+      </c>
+      <c r="F428" t="s">
+        <v>33</v>
+      </c>
+      <c r="G428" t="s">
+        <v>33</v>
+      </c>
+      <c r="H428" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
+      <c r="B429" t="s">
+        <v>661</v>
+      </c>
+      <c r="C429" t="n">
+        <v>4</v>
+      </c>
+      <c r="D429" t="s">
+        <v>192</v>
+      </c>
+      <c r="E429" t="s">
+        <v>33</v>
+      </c>
+      <c r="F429" t="s">
+        <v>33</v>
+      </c>
+      <c r="G429" t="s">
+        <v>33</v>
+      </c>
+      <c r="H429" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
+      <c r="A431" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
+      <c r="B432" t="s">
+        <v>616</v>
+      </c>
+      <c r="C432" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="D432" t="s">
+        <v>185</v>
+      </c>
+      <c r="E432" t="s">
+        <v>186</v>
+      </c>
+      <c r="F432" t="s">
+        <v>33</v>
+      </c>
+      <c r="G432" t="s">
+        <v>33</v>
+      </c>
+      <c r="H432" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
+      <c r="A434" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
+      <c r="B435" t="s">
+        <v>305</v>
+      </c>
+      <c r="C435" t="n">
+        <v>3.524</v>
+      </c>
+      <c r="D435" t="s">
+        <v>178</v>
+      </c>
+      <c r="E435" t="s">
+        <v>46</v>
+      </c>
+      <c r="F435" t="s">
+        <v>33</v>
+      </c>
+      <c r="G435" t="s">
+        <v>33</v>
+      </c>
+      <c r="H435" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
+      <c r="B436" t="s">
+        <v>664</v>
+      </c>
+      <c r="C436" t="n">
         <v>3.685</v>
       </c>
-      <c r="D427" t="s">
-        <v>656</v>
-      </c>
-      <c r="E427" t="s">
-        <v>657</v>
-      </c>
-      <c r="F427" t="s">
-        <v>33</v>
-      </c>
-      <c r="G427" t="s">
-        <v>33</v>
-      </c>
-      <c r="H427" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="429" spans="1:8">
-      <c r="A429" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8">
-      <c r="B430" t="s">
-        <v>659</v>
-      </c>
-      <c r="C430" t="n">
+      <c r="D436" t="s">
+        <v>665</v>
+      </c>
+      <c r="E436" t="s">
+        <v>666</v>
+      </c>
+      <c r="F436" t="s">
+        <v>33</v>
+      </c>
+      <c r="G436" t="s">
+        <v>33</v>
+      </c>
+      <c r="H436" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
+      <c r="A438" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8">
+      <c r="B439" t="s">
+        <v>668</v>
+      </c>
+      <c r="C439" t="n">
         <v>3.667</v>
       </c>
-      <c r="D430" t="s">
+      <c r="D439" t="s">
         <v>385</v>
       </c>
-      <c r="E430" t="s">
+      <c r="E439" t="s">
         <v>118</v>
       </c>
-      <c r="F430" t="s">
-        <v>33</v>
-      </c>
-      <c r="G430" t="s">
-        <v>33</v>
-      </c>
-      <c r="H430" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="431" spans="1:8">
-      <c r="B431" t="s">
-        <v>571</v>
-      </c>
-      <c r="C431" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="D431" t="s">
-        <v>660</v>
-      </c>
-      <c r="E431" t="s">
-        <v>661</v>
-      </c>
-      <c r="F431" t="s">
-        <v>33</v>
-      </c>
-      <c r="G431" t="s">
-        <v>33</v>
-      </c>
-      <c r="H431" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="433" spans="1:8">
-      <c r="A433" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="434" spans="1:8">
-      <c r="B434" t="s">
-        <v>663</v>
-      </c>
-      <c r="C434" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="D434" t="s">
-        <v>664</v>
-      </c>
-      <c r="E434" t="s">
-        <v>665</v>
-      </c>
-      <c r="F434" t="s">
-        <v>33</v>
-      </c>
-      <c r="G434" t="s">
-        <v>33</v>
-      </c>
-      <c r="H434" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="436" spans="1:8">
-      <c r="A436" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="437" spans="1:8">
-      <c r="B437" t="s">
-        <v>659</v>
-      </c>
-      <c r="C437" t="n">
-        <v>3.514</v>
-      </c>
-      <c r="D437" t="s">
-        <v>667</v>
-      </c>
-      <c r="E437" t="s">
-        <v>668</v>
-      </c>
-      <c r="F437" t="s">
-        <v>33</v>
-      </c>
-      <c r="G437" t="s">
-        <v>33</v>
-      </c>
-      <c r="H437" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="439" spans="1:8">
-      <c r="A439" t="s">
-        <v>669</v>
+      <c r="F439" t="s">
+        <v>33</v>
+      </c>
+      <c r="G439" t="s">
+        <v>33</v>
+      </c>
+      <c r="H439" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="440" spans="1:8">
       <c r="B440" t="s">
+        <v>577</v>
+      </c>
+      <c r="C440" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="D440" t="s">
+        <v>669</v>
+      </c>
+      <c r="E440" t="s">
         <v>670</v>
-      </c>
-      <c r="C440" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="D440" t="s">
-        <v>671</v>
-      </c>
-      <c r="E440" t="s">
-        <v>672</v>
       </c>
       <c r="F440" t="s">
         <v>33</v>
@@ -7877,24 +7951,24 @@
     </row>
     <row r="442" spans="1:8">
       <c r="A442" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="443" spans="1:8">
       <c r="B443" t="s">
+        <v>672</v>
+      </c>
+      <c r="C443" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="D443" t="s">
+        <v>673</v>
+      </c>
+      <c r="E443" t="s">
         <v>674</v>
       </c>
-      <c r="C443" t="n">
-        <v>3.733</v>
-      </c>
-      <c r="D443" t="s">
-        <v>675</v>
-      </c>
-      <c r="E443" t="s">
-        <v>104</v>
-      </c>
       <c r="F443" t="s">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="G443" t="s">
         <v>33</v>
@@ -7905,21 +7979,21 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="446" spans="1:8">
       <c r="B446" t="s">
+        <v>668</v>
+      </c>
+      <c r="C446" t="n">
+        <v>3.514</v>
+      </c>
+      <c r="D446" t="s">
+        <v>676</v>
+      </c>
+      <c r="E446" t="s">
         <v>677</v>
-      </c>
-      <c r="C446" t="n">
-        <v>4</v>
-      </c>
-      <c r="D446" t="s">
-        <v>192</v>
-      </c>
-      <c r="E446" t="s">
-        <v>33</v>
       </c>
       <c r="F446" t="s">
         <v>33</v>
@@ -7941,13 +8015,13 @@
         <v>679</v>
       </c>
       <c r="C449" t="n">
-        <v>3.857</v>
+        <v>3.952</v>
       </c>
       <c r="D449" t="s">
-        <v>252</v>
+        <v>680</v>
       </c>
       <c r="E449" t="s">
-        <v>253</v>
+        <v>681</v>
       </c>
       <c r="F449" t="s">
         <v>33</v>
@@ -7961,24 +8035,24 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="452" spans="1:8">
       <c r="B452" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="C452" t="n">
-        <v>4</v>
+        <v>3.733</v>
       </c>
       <c r="D452" t="s">
-        <v>192</v>
+        <v>684</v>
       </c>
       <c r="E452" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="F452" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="G452" t="s">
         <v>33</v>
@@ -7989,21 +8063,21 @@
     </row>
     <row r="454" spans="1:8">
       <c r="A454" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="455" spans="1:8">
       <c r="B455" t="s">
-        <v>596</v>
+        <v>686</v>
       </c>
       <c r="C455" t="n">
-        <v>3.816</v>
+        <v>4</v>
       </c>
       <c r="D455" t="s">
-        <v>682</v>
+        <v>192</v>
       </c>
       <c r="E455" t="s">
-        <v>683</v>
+        <v>33</v>
       </c>
       <c r="F455" t="s">
         <v>33</v>
@@ -8017,21 +8091,21 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="458" spans="1:8">
       <c r="B458" t="s">
-        <v>638</v>
+        <v>688</v>
       </c>
       <c r="C458" t="n">
-        <v>3.586</v>
+        <v>3.857</v>
       </c>
       <c r="D458" t="s">
-        <v>685</v>
+        <v>252</v>
       </c>
       <c r="E458" t="s">
-        <v>686</v>
+        <v>253</v>
       </c>
       <c r="F458" t="s">
         <v>33</v>
@@ -8045,21 +8119,21 @@
     </row>
     <row r="460" spans="1:8">
       <c r="A460" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="461" spans="1:8">
       <c r="B461" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C461" t="n">
-        <v>3.7895</v>
+        <v>4</v>
       </c>
       <c r="D461" t="s">
-        <v>689</v>
+        <v>192</v>
       </c>
       <c r="E461" t="s">
-        <v>690</v>
+        <v>33</v>
       </c>
       <c r="F461" t="s">
         <v>33</v>
@@ -8073,21 +8147,21 @@
     </row>
     <row r="463" spans="1:8">
       <c r="A463" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="464" spans="1:8">
       <c r="B464" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C464" t="n">
-        <v>3.769</v>
+        <v>3.816</v>
       </c>
       <c r="D464" t="s">
+        <v>691</v>
+      </c>
+      <c r="E464" t="s">
         <v>692</v>
-      </c>
-      <c r="E464" t="s">
-        <v>522</v>
       </c>
       <c r="F464" t="s">
         <v>33</v>
@@ -8106,19 +8180,19 @@
     </row>
     <row r="467" spans="1:8">
       <c r="B467" t="s">
-        <v>380</v>
+        <v>646</v>
       </c>
       <c r="C467" t="n">
-        <v>3.467</v>
+        <v>3.586</v>
       </c>
       <c r="D467" t="s">
         <v>694</v>
       </c>
       <c r="E467" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F467" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G467" t="s">
         <v>33</v>
@@ -8129,212 +8203,212 @@
     </row>
     <row r="469" spans="1:8">
       <c r="A469" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="470" spans="1:8">
       <c r="B470" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C470" t="n">
+        <v>3.7895</v>
+      </c>
+      <c r="D470" t="s">
+        <v>698</v>
+      </c>
+      <c r="E470" t="s">
+        <v>699</v>
+      </c>
+      <c r="F470" t="s">
+        <v>33</v>
+      </c>
+      <c r="G470" t="s">
+        <v>33</v>
+      </c>
+      <c r="H470" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8">
+      <c r="B471" t="s">
+        <v>661</v>
+      </c>
+      <c r="C471" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="D471" t="s">
+        <v>700</v>
+      </c>
+      <c r="E471" t="s">
+        <v>501</v>
+      </c>
+      <c r="F471" t="s">
+        <v>501</v>
+      </c>
+      <c r="G471" t="s">
+        <v>33</v>
+      </c>
+      <c r="H471" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8">
+      <c r="A473" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8">
+      <c r="B474" t="s">
+        <v>612</v>
+      </c>
+      <c r="C474" t="n">
+        <v>3.769</v>
+      </c>
+      <c r="D474" t="s">
+        <v>702</v>
+      </c>
+      <c r="E474" t="s">
+        <v>528</v>
+      </c>
+      <c r="F474" t="s">
+        <v>33</v>
+      </c>
+      <c r="G474" t="s">
+        <v>33</v>
+      </c>
+      <c r="H474" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8">
+      <c r="A476" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8">
+      <c r="B477" t="s">
+        <v>380</v>
+      </c>
+      <c r="C477" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="D477" t="s">
+        <v>704</v>
+      </c>
+      <c r="E477" t="s">
+        <v>704</v>
+      </c>
+      <c r="F477" t="s">
+        <v>54</v>
+      </c>
+      <c r="G477" t="s">
+        <v>33</v>
+      </c>
+      <c r="H477" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8">
+      <c r="A479" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8">
+      <c r="B480" t="s">
+        <v>706</v>
+      </c>
+      <c r="C480" t="n">
         <v>3.66</v>
       </c>
-      <c r="D470" t="s">
-        <v>697</v>
-      </c>
-      <c r="E470" t="s">
-        <v>698</v>
-      </c>
-      <c r="F470" t="s">
-        <v>33</v>
-      </c>
-      <c r="G470" t="s">
-        <v>33</v>
-      </c>
-      <c r="H470" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="472" spans="1:8">
-      <c r="A472" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="473" spans="1:8">
-      <c r="B473" t="s">
-        <v>606</v>
-      </c>
-      <c r="C473" t="n">
+      <c r="D480" t="s">
+        <v>707</v>
+      </c>
+      <c r="E480" t="s">
+        <v>708</v>
+      </c>
+      <c r="F480" t="s">
+        <v>33</v>
+      </c>
+      <c r="G480" t="s">
+        <v>33</v>
+      </c>
+      <c r="H480" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8">
+      <c r="A482" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8">
+      <c r="B483" t="s">
+        <v>612</v>
+      </c>
+      <c r="C483" t="n">
         <v>3.424</v>
       </c>
-      <c r="D473" t="s">
-        <v>700</v>
-      </c>
-      <c r="E473" t="s">
-        <v>701</v>
-      </c>
-      <c r="F473" t="s">
-        <v>482</v>
-      </c>
-      <c r="G473" t="s">
-        <v>482</v>
-      </c>
-      <c r="H473" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="475" spans="1:8">
-      <c r="A475" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="476" spans="1:8">
-      <c r="B476" t="s">
-        <v>703</v>
-      </c>
-      <c r="C476" t="n">
+      <c r="D483" t="s">
+        <v>710</v>
+      </c>
+      <c r="E483" t="s">
+        <v>711</v>
+      </c>
+      <c r="F483" t="s">
+        <v>488</v>
+      </c>
+      <c r="G483" t="s">
+        <v>488</v>
+      </c>
+      <c r="H483" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
+      <c r="A485" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8">
+      <c r="B486" t="s">
+        <v>713</v>
+      </c>
+      <c r="C486" t="n">
         <v>3.5</v>
       </c>
-      <c r="D476" t="s">
-        <v>704</v>
-      </c>
-      <c r="E476" t="s">
-        <v>519</v>
-      </c>
-      <c r="F476" t="s">
+      <c r="D486" t="s">
+        <v>714</v>
+      </c>
+      <c r="E486" t="s">
+        <v>525</v>
+      </c>
+      <c r="F486" t="s">
         <v>182</v>
       </c>
-      <c r="G476" t="s">
-        <v>33</v>
-      </c>
-      <c r="H476" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="478" spans="1:8">
-      <c r="A478" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="479" spans="1:8">
-      <c r="B479" t="s">
-        <v>706</v>
-      </c>
-      <c r="C479" t="n">
-        <v>4</v>
-      </c>
-      <c r="D479" t="s">
-        <v>192</v>
-      </c>
-      <c r="E479" t="s">
-        <v>33</v>
-      </c>
-      <c r="F479" t="s">
-        <v>33</v>
-      </c>
-      <c r="G479" t="s">
-        <v>33</v>
-      </c>
-      <c r="H479" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="481" spans="1:8">
-      <c r="A481" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="482" spans="1:8">
-      <c r="B482" t="s">
-        <v>646</v>
-      </c>
-      <c r="C482" t="n">
-        <v>3.579</v>
-      </c>
-      <c r="D482" t="s">
-        <v>708</v>
-      </c>
-      <c r="E482" t="s">
-        <v>47</v>
-      </c>
-      <c r="F482" t="s">
-        <v>33</v>
-      </c>
-      <c r="G482" t="s">
-        <v>33</v>
-      </c>
-      <c r="H482" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="484" spans="1:8">
-      <c r="A484" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="485" spans="1:8">
-      <c r="B485" t="s">
-        <v>610</v>
-      </c>
-      <c r="C485" t="n">
-        <v>3.4613</v>
-      </c>
-      <c r="D485" t="s">
-        <v>710</v>
-      </c>
-      <c r="E485" t="s">
-        <v>711</v>
-      </c>
-      <c r="F485" t="s">
-        <v>33</v>
-      </c>
-      <c r="G485" t="s">
-        <v>33</v>
-      </c>
-      <c r="H485" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="487" spans="1:8">
-      <c r="A487" t="s">
-        <v>712</v>
+      <c r="G486" t="s">
+        <v>33</v>
+      </c>
+      <c r="H486" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="488" spans="1:8">
-      <c r="B488" t="s">
-        <v>703</v>
-      </c>
-      <c r="C488" t="n">
-        <v>3.329</v>
-      </c>
-      <c r="D488" t="s">
-        <v>713</v>
-      </c>
-      <c r="E488" t="s">
-        <v>714</v>
-      </c>
-      <c r="F488" t="s">
+      <c r="A488" t="s">
         <v>715</v>
-      </c>
-      <c r="G488" t="s">
-        <v>33</v>
-      </c>
-      <c r="H488" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="489" spans="1:8">
       <c r="B489" t="s">
-        <v>630</v>
+        <v>716</v>
       </c>
       <c r="C489" t="n">
-        <v>3.5015</v>
+        <v>4</v>
       </c>
       <c r="D489" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="E489" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="F489" t="s">
         <v>33</v>
@@ -8348,21 +8422,21 @@
     </row>
     <row r="491" spans="1:8">
       <c r="A491" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="492" spans="1:8">
       <c r="B492" t="s">
-        <v>679</v>
+        <v>654</v>
       </c>
       <c r="C492" t="n">
-        <v>4</v>
+        <v>3.579</v>
       </c>
       <c r="D492" t="s">
-        <v>192</v>
+        <v>718</v>
       </c>
       <c r="E492" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F492" t="s">
         <v>33</v>
@@ -8376,157 +8450,157 @@
     </row>
     <row r="494" spans="1:8">
       <c r="A494" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="495" spans="1:8">
       <c r="B495" t="s">
-        <v>718</v>
+        <v>616</v>
       </c>
       <c r="C495" t="n">
-        <v>3.2235</v>
+        <v>3.4613</v>
       </c>
       <c r="D495" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E495" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F495" t="s">
-        <v>502</v>
+        <v>33</v>
       </c>
       <c r="G495" t="s">
-        <v>721</v>
+        <v>33</v>
       </c>
       <c r="H495" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8">
+      <c r="A497" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="496" spans="1:8">
-      <c r="B496" t="s">
-        <v>257</v>
-      </c>
-      <c r="C496" t="n">
-        <v>3.914</v>
-      </c>
-      <c r="D496" t="s">
+    <row r="498" spans="1:8">
+      <c r="B498" t="s">
+        <v>713</v>
+      </c>
+      <c r="C498" t="n">
+        <v>3.329</v>
+      </c>
+      <c r="D498" t="s">
         <v>723</v>
       </c>
-      <c r="E496" t="s">
+      <c r="E498" t="s">
         <v>724</v>
       </c>
-      <c r="F496" t="s">
-        <v>33</v>
-      </c>
-      <c r="G496" t="s">
-        <v>33</v>
-      </c>
-      <c r="H496" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="498" spans="1:8">
-      <c r="A498" t="s">
+      <c r="F498" t="s">
         <v>725</v>
+      </c>
+      <c r="G498" t="s">
+        <v>33</v>
+      </c>
+      <c r="H498" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="499" spans="1:8">
       <c r="B499" t="s">
+        <v>638</v>
+      </c>
+      <c r="C499" t="n">
+        <v>3.5015</v>
+      </c>
+      <c r="D499" t="s">
+        <v>141</v>
+      </c>
+      <c r="E499" t="s">
+        <v>141</v>
+      </c>
+      <c r="F499" t="s">
+        <v>33</v>
+      </c>
+      <c r="G499" t="s">
+        <v>33</v>
+      </c>
+      <c r="H499" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8">
+      <c r="A501" t="s">
         <v>726</v>
       </c>
-      <c r="C499" t="n">
-        <v>3.048</v>
-      </c>
-      <c r="D499" t="s">
+    </row>
+    <row r="502" spans="1:8">
+      <c r="B502" t="s">
+        <v>688</v>
+      </c>
+      <c r="C502" t="n">
+        <v>4</v>
+      </c>
+      <c r="D502" t="s">
+        <v>192</v>
+      </c>
+      <c r="E502" t="s">
+        <v>33</v>
+      </c>
+      <c r="F502" t="s">
+        <v>33</v>
+      </c>
+      <c r="G502" t="s">
+        <v>33</v>
+      </c>
+      <c r="H502" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8">
+      <c r="A504" t="s">
         <v>727</v>
       </c>
-      <c r="E499" t="s">
-        <v>321</v>
-      </c>
-      <c r="F499" t="s">
+    </row>
+    <row r="505" spans="1:8">
+      <c r="B505" t="s">
         <v>728</v>
       </c>
-      <c r="G499" t="s">
-        <v>721</v>
-      </c>
-      <c r="H499" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="500" spans="1:8">
-      <c r="B500" t="s">
+      <c r="C505" t="n">
+        <v>3.2235</v>
+      </c>
+      <c r="D505" t="s">
         <v>729</v>
       </c>
-      <c r="C500" t="n">
-        <v>3.3165</v>
-      </c>
-      <c r="D500" t="s">
+      <c r="E505" t="s">
         <v>730</v>
       </c>
-      <c r="E500" t="s">
+      <c r="F505" t="s">
+        <v>508</v>
+      </c>
+      <c r="G505" t="s">
         <v>731</v>
       </c>
-      <c r="F500" t="s">
-        <v>14</v>
-      </c>
-      <c r="G500" t="s">
-        <v>33</v>
-      </c>
-      <c r="H500" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="502" spans="1:8">
-      <c r="A502" t="s">
+      <c r="H505" t="s">
         <v>732</v>
-      </c>
-    </row>
-    <row r="503" spans="1:8">
-      <c r="B503" t="s">
-        <v>733</v>
-      </c>
-      <c r="C503" t="n">
-        <v>3.3213</v>
-      </c>
-      <c r="D503" t="s">
-        <v>427</v>
-      </c>
-      <c r="E503" t="s">
-        <v>334</v>
-      </c>
-      <c r="F503" t="s">
-        <v>734</v>
-      </c>
-      <c r="G503" t="s">
-        <v>33</v>
-      </c>
-      <c r="H503" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="505" spans="1:8">
-      <c r="A505" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="506" spans="1:8">
       <c r="B506" t="s">
-        <v>729</v>
+        <v>257</v>
       </c>
       <c r="C506" t="n">
-        <v>3.152</v>
+        <v>3.914</v>
       </c>
       <c r="D506" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E506" t="s">
-        <v>651</v>
+        <v>734</v>
       </c>
       <c r="F506" t="s">
-        <v>737</v>
+        <v>33</v>
       </c>
       <c r="G506" t="s">
-        <v>357</v>
+        <v>33</v>
       </c>
       <c r="H506" t="s">
         <v>33</v>
@@ -8534,75 +8608,75 @@
     </row>
     <row r="508" spans="1:8">
       <c r="A508" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="509" spans="1:8">
       <c r="B509" t="s">
+        <v>736</v>
+      </c>
+      <c r="C509" t="n">
+        <v>3.048</v>
+      </c>
+      <c r="D509" t="s">
+        <v>737</v>
+      </c>
+      <c r="E509" t="s">
+        <v>321</v>
+      </c>
+      <c r="F509" t="s">
+        <v>738</v>
+      </c>
+      <c r="G509" t="s">
+        <v>731</v>
+      </c>
+      <c r="H509" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8">
+      <c r="B510" t="s">
         <v>739</v>
       </c>
-      <c r="C509" t="n">
-        <v>3.5025</v>
-      </c>
-      <c r="D509" t="s">
-        <v>321</v>
-      </c>
-      <c r="E509" t="s">
-        <v>114</v>
-      </c>
-      <c r="F509" t="s">
+      <c r="C510" t="n">
+        <v>3.3165</v>
+      </c>
+      <c r="D510" t="s">
         <v>740</v>
       </c>
-      <c r="G509" t="s">
-        <v>33</v>
-      </c>
-      <c r="H509" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="511" spans="1:8">
-      <c r="A511" t="s">
+      <c r="E510" t="s">
         <v>741</v>
       </c>
+      <c r="F510" t="s">
+        <v>14</v>
+      </c>
+      <c r="G510" t="s">
+        <v>33</v>
+      </c>
+      <c r="H510" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="512" spans="1:8">
-      <c r="B512" t="s">
+      <c r="A512" t="s">
         <v>742</v>
-      </c>
-      <c r="C512" t="n">
-        <v>3.741</v>
-      </c>
-      <c r="D512" t="s">
-        <v>189</v>
-      </c>
-      <c r="E512" t="s">
-        <v>743</v>
-      </c>
-      <c r="F512" t="s">
-        <v>21</v>
-      </c>
-      <c r="G512" t="s">
-        <v>33</v>
-      </c>
-      <c r="H512" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="513" spans="1:8">
       <c r="B513" t="s">
+        <v>743</v>
+      </c>
+      <c r="C513" t="n">
+        <v>3.3213</v>
+      </c>
+      <c r="D513" t="s">
+        <v>433</v>
+      </c>
+      <c r="E513" t="s">
+        <v>334</v>
+      </c>
+      <c r="F513" t="s">
         <v>744</v>
-      </c>
-      <c r="C513" t="n">
-        <v>3.267</v>
-      </c>
-      <c r="D513" t="s">
-        <v>745</v>
-      </c>
-      <c r="E513" t="s">
-        <v>746</v>
-      </c>
-      <c r="F513" t="s">
-        <v>155</v>
       </c>
       <c r="G513" t="s">
         <v>33</v>
@@ -8613,27 +8687,27 @@
     </row>
     <row r="515" spans="1:8">
       <c r="A515" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="516" spans="1:8">
       <c r="B516" t="s">
-        <v>398</v>
+        <v>739</v>
       </c>
       <c r="C516" t="n">
-        <v>3.297</v>
+        <v>3.152</v>
       </c>
       <c r="D516" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E516" t="s">
-        <v>278</v>
+        <v>659</v>
       </c>
       <c r="F516" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G516" t="s">
-        <v>582</v>
+        <v>357</v>
       </c>
       <c r="H516" t="s">
         <v>33</v>
@@ -8641,722 +8715,722 @@
     </row>
     <row r="518" spans="1:8">
       <c r="A518" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="519" spans="1:8">
       <c r="B519" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C519" t="n">
-        <v>2.5835</v>
+        <v>3.5025</v>
       </c>
       <c r="D519" t="s">
-        <v>253</v>
+        <v>321</v>
       </c>
       <c r="E519" t="s">
-        <v>752</v>
+        <v>114</v>
       </c>
       <c r="F519" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="G519" t="s">
-        <v>754</v>
+        <v>33</v>
       </c>
       <c r="H519" t="s">
-        <v>755</v>
+        <v>33</v>
       </c>
     </row>
     <row r="521" spans="1:8">
       <c r="A521" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="522" spans="1:8">
       <c r="B522" t="s">
+        <v>752</v>
+      </c>
+      <c r="C522" t="n">
+        <v>3.741</v>
+      </c>
+      <c r="D522" t="s">
+        <v>189</v>
+      </c>
+      <c r="E522" t="s">
+        <v>753</v>
+      </c>
+      <c r="F522" t="s">
+        <v>21</v>
+      </c>
+      <c r="G522" t="s">
+        <v>33</v>
+      </c>
+      <c r="H522" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8">
+      <c r="B523" t="s">
+        <v>754</v>
+      </c>
+      <c r="C523" t="n">
+        <v>3.267</v>
+      </c>
+      <c r="D523" t="s">
+        <v>755</v>
+      </c>
+      <c r="E523" t="s">
+        <v>756</v>
+      </c>
+      <c r="F523" t="s">
+        <v>155</v>
+      </c>
+      <c r="G523" t="s">
+        <v>33</v>
+      </c>
+      <c r="H523" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8">
+      <c r="A525" t="s">
         <v>757</v>
       </c>
-      <c r="C522" t="n">
+    </row>
+    <row r="526" spans="1:8">
+      <c r="B526" t="s">
+        <v>398</v>
+      </c>
+      <c r="C526" t="n">
+        <v>3.297</v>
+      </c>
+      <c r="D526" t="s">
+        <v>758</v>
+      </c>
+      <c r="E526" t="s">
+        <v>278</v>
+      </c>
+      <c r="F526" t="s">
+        <v>759</v>
+      </c>
+      <c r="G526" t="s">
+        <v>588</v>
+      </c>
+      <c r="H526" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8">
+      <c r="A528" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8">
+      <c r="B529" t="s">
+        <v>761</v>
+      </c>
+      <c r="C529" t="n">
+        <v>2.5835</v>
+      </c>
+      <c r="D529" t="s">
+        <v>253</v>
+      </c>
+      <c r="E529" t="s">
+        <v>762</v>
+      </c>
+      <c r="F529" t="s">
+        <v>763</v>
+      </c>
+      <c r="G529" t="s">
+        <v>764</v>
+      </c>
+      <c r="H529" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8">
+      <c r="A531" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8">
+      <c r="B532" t="s">
+        <v>767</v>
+      </c>
+      <c r="C532" t="n">
         <v>3.45</v>
       </c>
-      <c r="D522" t="s">
-        <v>758</v>
-      </c>
-      <c r="E522" t="s">
-        <v>759</v>
-      </c>
-      <c r="F522" t="s">
+      <c r="D532" t="s">
+        <v>768</v>
+      </c>
+      <c r="E532" t="s">
+        <v>769</v>
+      </c>
+      <c r="F532" t="s">
         <v>402</v>
       </c>
-      <c r="G522" t="s">
-        <v>33</v>
-      </c>
-      <c r="H522" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="524" spans="1:8">
-      <c r="A524" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="525" spans="1:8">
-      <c r="B525" t="s">
-        <v>757</v>
-      </c>
-      <c r="C525" t="n">
+      <c r="G532" t="s">
+        <v>33</v>
+      </c>
+      <c r="H532" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8">
+      <c r="A534" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8">
+      <c r="B535" t="s">
+        <v>767</v>
+      </c>
+      <c r="C535" t="n">
         <v>4</v>
       </c>
-      <c r="D525" t="s">
+      <c r="D535" t="s">
         <v>192</v>
       </c>
-      <c r="E525" t="s">
-        <v>33</v>
-      </c>
-      <c r="F525" t="s">
-        <v>33</v>
-      </c>
-      <c r="G525" t="s">
-        <v>33</v>
-      </c>
-      <c r="H525" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="527" spans="1:8">
-      <c r="A527" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="528" spans="1:8">
-      <c r="B528" t="s">
+      <c r="E535" t="s">
+        <v>33</v>
+      </c>
+      <c r="F535" t="s">
+        <v>33</v>
+      </c>
+      <c r="G535" t="s">
+        <v>33</v>
+      </c>
+      <c r="H535" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8">
+      <c r="A537" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8">
+      <c r="B538" t="s">
         <v>257</v>
       </c>
-      <c r="C528" t="n">
+      <c r="C538" t="n">
         <v>3.5575</v>
       </c>
-      <c r="D528" t="s">
-        <v>762</v>
-      </c>
-      <c r="E528" t="s">
-        <v>730</v>
-      </c>
-      <c r="F528" t="s">
-        <v>763</v>
-      </c>
-      <c r="G528" t="s">
-        <v>33</v>
-      </c>
-      <c r="H528" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="530" spans="1:8">
-      <c r="A530" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="531" spans="1:8">
-      <c r="B531" t="s">
-        <v>765</v>
-      </c>
-      <c r="C531" t="n">
+      <c r="D538" t="s">
+        <v>772</v>
+      </c>
+      <c r="E538" t="s">
+        <v>740</v>
+      </c>
+      <c r="F538" t="s">
+        <v>773</v>
+      </c>
+      <c r="G538" t="s">
+        <v>33</v>
+      </c>
+      <c r="H538" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8">
+      <c r="A540" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8">
+      <c r="B541" t="s">
+        <v>775</v>
+      </c>
+      <c r="C541" t="n">
         <v>3.258</v>
       </c>
-      <c r="D531" t="s">
-        <v>766</v>
-      </c>
-      <c r="E531" t="s">
+      <c r="D541" t="s">
+        <v>776</v>
+      </c>
+      <c r="E541" t="s">
+        <v>777</v>
+      </c>
+      <c r="F541" t="s">
+        <v>33</v>
+      </c>
+      <c r="G541" t="s">
+        <v>33</v>
+      </c>
+      <c r="H541" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8">
+      <c r="A543" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8">
+      <c r="B544" t="s">
+        <v>754</v>
+      </c>
+      <c r="C544" t="n">
+        <v>3.962</v>
+      </c>
+      <c r="D544" t="s">
+        <v>779</v>
+      </c>
+      <c r="E544" t="s">
+        <v>378</v>
+      </c>
+      <c r="F544" t="s">
+        <v>33</v>
+      </c>
+      <c r="G544" t="s">
+        <v>33</v>
+      </c>
+      <c r="H544" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8">
+      <c r="A546" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8">
+      <c r="B547" t="s">
+        <v>781</v>
+      </c>
+      <c r="C547" t="n">
+        <v>3.364</v>
+      </c>
+      <c r="D547" t="s">
+        <v>421</v>
+      </c>
+      <c r="E547" t="s">
+        <v>420</v>
+      </c>
+      <c r="F547" t="s">
+        <v>422</v>
+      </c>
+      <c r="G547" t="s">
+        <v>33</v>
+      </c>
+      <c r="H547" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8">
+      <c r="A549" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8">
+      <c r="B550" t="s">
+        <v>783</v>
+      </c>
+      <c r="C550" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D550" t="s">
+        <v>153</v>
+      </c>
+      <c r="E550" t="s">
+        <v>117</v>
+      </c>
+      <c r="F550" t="s">
+        <v>33</v>
+      </c>
+      <c r="G550" t="s">
+        <v>33</v>
+      </c>
+      <c r="H550" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8">
+      <c r="A552" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8">
+      <c r="B553" t="s">
         <v>767</v>
       </c>
-      <c r="F531" t="s">
-        <v>33</v>
-      </c>
-      <c r="G531" t="s">
-        <v>33</v>
-      </c>
-      <c r="H531" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="533" spans="1:8">
-      <c r="A533" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="534" spans="1:8">
-      <c r="B534" t="s">
-        <v>744</v>
-      </c>
-      <c r="C534" t="n">
-        <v>3.962</v>
-      </c>
-      <c r="D534" t="s">
-        <v>769</v>
-      </c>
-      <c r="E534" t="s">
-        <v>378</v>
-      </c>
-      <c r="F534" t="s">
-        <v>33</v>
-      </c>
-      <c r="G534" t="s">
-        <v>33</v>
-      </c>
-      <c r="H534" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="536" spans="1:8">
-      <c r="A536" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="537" spans="1:8">
-      <c r="B537" t="s">
-        <v>771</v>
-      </c>
-      <c r="C537" t="n">
-        <v>3.364</v>
-      </c>
-      <c r="D537" t="s">
-        <v>417</v>
-      </c>
-      <c r="E537" t="s">
-        <v>416</v>
-      </c>
-      <c r="F537" t="s">
-        <v>418</v>
-      </c>
-      <c r="G537" t="s">
-        <v>33</v>
-      </c>
-      <c r="H537" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="539" spans="1:8">
-      <c r="A539" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="540" spans="1:8">
-      <c r="B540" t="s">
-        <v>773</v>
-      </c>
-      <c r="C540" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D540" t="s">
-        <v>153</v>
-      </c>
-      <c r="E540" t="s">
-        <v>117</v>
-      </c>
-      <c r="F540" t="s">
-        <v>33</v>
-      </c>
-      <c r="G540" t="s">
-        <v>33</v>
-      </c>
-      <c r="H540" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="542" spans="1:8">
-      <c r="A542" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="543" spans="1:8">
-      <c r="B543" t="s">
-        <v>757</v>
-      </c>
-      <c r="C543" t="n">
+      <c r="C553" t="n">
         <v>4</v>
       </c>
-      <c r="D543" t="s">
+      <c r="D553" t="s">
         <v>192</v>
       </c>
-      <c r="E543" t="s">
-        <v>33</v>
-      </c>
-      <c r="F543" t="s">
-        <v>33</v>
-      </c>
-      <c r="G543" t="s">
-        <v>33</v>
-      </c>
-      <c r="H543" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="545" spans="1:8">
-      <c r="A545" t="s">
+      <c r="E553" t="s">
+        <v>33</v>
+      </c>
+      <c r="F553" t="s">
+        <v>33</v>
+      </c>
+      <c r="G553" t="s">
+        <v>33</v>
+      </c>
+      <c r="H553" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8">
+      <c r="A555" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8">
+      <c r="B556" t="s">
+        <v>786</v>
+      </c>
+      <c r="C556" t="n">
+        <v>3.714</v>
+      </c>
+      <c r="D556" t="s">
+        <v>787</v>
+      </c>
+      <c r="E556" t="s">
+        <v>320</v>
+      </c>
+      <c r="F556" t="s">
+        <v>33</v>
+      </c>
+      <c r="G556" t="s">
+        <v>33</v>
+      </c>
+      <c r="H556" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8">
+      <c r="A558" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8">
+      <c r="B559" t="s">
+        <v>789</v>
+      </c>
+      <c r="C559" t="n">
+        <v>3.349</v>
+      </c>
+      <c r="D559" t="s">
+        <v>790</v>
+      </c>
+      <c r="E559" t="s">
+        <v>791</v>
+      </c>
+      <c r="F559" t="s">
+        <v>33</v>
+      </c>
+      <c r="G559" t="s">
+        <v>33</v>
+      </c>
+      <c r="H559" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8">
+      <c r="A561" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8">
+      <c r="B562" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="546" spans="1:8">
-      <c r="B546" t="s">
-        <v>776</v>
-      </c>
-      <c r="C546" t="n">
-        <v>3.714</v>
-      </c>
-      <c r="D546" t="s">
-        <v>777</v>
-      </c>
-      <c r="E546" t="s">
-        <v>320</v>
-      </c>
-      <c r="F546" t="s">
-        <v>33</v>
-      </c>
-      <c r="G546" t="s">
-        <v>33</v>
-      </c>
-      <c r="H546" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="548" spans="1:8">
-      <c r="A548" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="549" spans="1:8">
-      <c r="B549" t="s">
-        <v>779</v>
-      </c>
-      <c r="C549" t="n">
-        <v>3.349</v>
-      </c>
-      <c r="D549" t="s">
-        <v>780</v>
-      </c>
-      <c r="E549" t="s">
-        <v>781</v>
-      </c>
-      <c r="F549" t="s">
-        <v>33</v>
-      </c>
-      <c r="G549" t="s">
-        <v>33</v>
-      </c>
-      <c r="H549" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="551" spans="1:8">
-      <c r="A551" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="552" spans="1:8">
-      <c r="B552" t="s">
-        <v>765</v>
-      </c>
-      <c r="C552" t="n">
+      <c r="C562" t="n">
         <v>3.424</v>
       </c>
-      <c r="D552" t="s">
-        <v>651</v>
-      </c>
-      <c r="E552" t="s">
-        <v>700</v>
-      </c>
-      <c r="F552" t="s">
-        <v>482</v>
-      </c>
-      <c r="G552" t="s">
-        <v>33</v>
-      </c>
-      <c r="H552" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="554" spans="1:8">
-      <c r="A554" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="555" spans="1:8">
-      <c r="B555" t="s">
-        <v>776</v>
-      </c>
-      <c r="C555" t="n">
+      <c r="D562" t="s">
+        <v>659</v>
+      </c>
+      <c r="E562" t="s">
+        <v>710</v>
+      </c>
+      <c r="F562" t="s">
+        <v>488</v>
+      </c>
+      <c r="G562" t="s">
+        <v>33</v>
+      </c>
+      <c r="H562" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
+      <c r="A564" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="B565" t="s">
+        <v>786</v>
+      </c>
+      <c r="C565" t="n">
         <v>3.214</v>
       </c>
-      <c r="D555" t="s">
-        <v>784</v>
-      </c>
-      <c r="E555" t="s">
-        <v>785</v>
-      </c>
-      <c r="F555" t="s">
+      <c r="D565" t="s">
+        <v>794</v>
+      </c>
+      <c r="E565" t="s">
+        <v>795</v>
+      </c>
+      <c r="F565" t="s">
         <v>186</v>
       </c>
-      <c r="G555" t="s">
-        <v>33</v>
-      </c>
-      <c r="H555" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="557" spans="1:8">
-      <c r="A557" t="s">
+      <c r="G565" t="s">
+        <v>33</v>
+      </c>
+      <c r="H565" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
+      <c r="A567" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
+      <c r="B568" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="558" spans="1:8">
-      <c r="B558" t="s">
-        <v>776</v>
-      </c>
-      <c r="C558" t="n">
+      <c r="C568" t="n">
         <v>3.306</v>
       </c>
-      <c r="D558" t="s">
-        <v>127</v>
-      </c>
-      <c r="E558" t="s">
-        <v>787</v>
-      </c>
-      <c r="F558" t="s">
+      <c r="D568" t="s">
+        <v>132</v>
+      </c>
+      <c r="E568" t="s">
+        <v>797</v>
+      </c>
+      <c r="F568" t="s">
         <v>186</v>
       </c>
-      <c r="G558" t="s">
-        <v>33</v>
-      </c>
-      <c r="H558" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="560" spans="1:8">
-      <c r="A560" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="561" spans="1:8">
-      <c r="B561" t="s">
-        <v>726</v>
-      </c>
-      <c r="C561" t="n">
+      <c r="G568" t="s">
+        <v>33</v>
+      </c>
+      <c r="H568" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
+      <c r="A570" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
+      <c r="B571" t="s">
+        <v>736</v>
+      </c>
+      <c r="C571" t="n">
         <v>3.256</v>
       </c>
-      <c r="D561" t="s">
-        <v>622</v>
-      </c>
-      <c r="E561" t="s">
-        <v>521</v>
-      </c>
-      <c r="F561" t="s">
+      <c r="D571" t="s">
+        <v>630</v>
+      </c>
+      <c r="E571" t="s">
+        <v>527</v>
+      </c>
+      <c r="F571" t="s">
+        <v>799</v>
+      </c>
+      <c r="G571" t="s">
+        <v>33</v>
+      </c>
+      <c r="H571" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
+      <c r="A573" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
+      <c r="B574" t="s">
         <v>789</v>
       </c>
-      <c r="G561" t="s">
-        <v>33</v>
-      </c>
-      <c r="H561" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="563" spans="1:8">
-      <c r="A563" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="564" spans="1:8">
-      <c r="B564" t="s">
-        <v>779</v>
-      </c>
-      <c r="C564" t="n">
+      <c r="C574" t="n">
         <v>3.297</v>
       </c>
-      <c r="D564" t="s">
-        <v>791</v>
-      </c>
-      <c r="E564" t="s">
-        <v>792</v>
-      </c>
-      <c r="F564" t="s">
-        <v>33</v>
-      </c>
-      <c r="G564" t="s">
-        <v>33</v>
-      </c>
-      <c r="H564" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="566" spans="1:8">
-      <c r="A566" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="567" spans="1:8">
-      <c r="B567" t="s">
-        <v>794</v>
-      </c>
-      <c r="C567" t="n">
+      <c r="D574" t="s">
+        <v>801</v>
+      </c>
+      <c r="E574" t="s">
+        <v>802</v>
+      </c>
+      <c r="F574" t="s">
+        <v>33</v>
+      </c>
+      <c r="G574" t="s">
+        <v>33</v>
+      </c>
+      <c r="H574" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8">
+      <c r="A576" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8">
+      <c r="B577" t="s">
+        <v>804</v>
+      </c>
+      <c r="C577" t="n">
         <v>3.861</v>
       </c>
-      <c r="D567" t="s">
-        <v>795</v>
-      </c>
-      <c r="E567" t="s">
-        <v>796</v>
-      </c>
-      <c r="F567" t="s">
-        <v>33</v>
-      </c>
-      <c r="G567" t="s">
-        <v>33</v>
-      </c>
-      <c r="H567" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="569" spans="1:8">
-      <c r="A569" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="570" spans="1:8">
-      <c r="B570" t="s">
-        <v>798</v>
-      </c>
-      <c r="C570" t="n">
+      <c r="D577" t="s">
+        <v>423</v>
+      </c>
+      <c r="E577" t="s">
+        <v>424</v>
+      </c>
+      <c r="F577" t="s">
+        <v>33</v>
+      </c>
+      <c r="G577" t="s">
+        <v>33</v>
+      </c>
+      <c r="H577" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8">
+      <c r="A579" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8">
+      <c r="B580" t="s">
+        <v>806</v>
+      </c>
+      <c r="C580" t="n">
         <v>3.317</v>
       </c>
-      <c r="D570" t="s">
-        <v>799</v>
-      </c>
-      <c r="E570" t="s">
-        <v>800</v>
-      </c>
-      <c r="F570" t="s">
-        <v>509</v>
-      </c>
-      <c r="G570" t="s">
-        <v>33</v>
-      </c>
-      <c r="H570" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="572" spans="1:8">
-      <c r="A572" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="573" spans="1:8">
-      <c r="B573" t="s">
-        <v>794</v>
-      </c>
-      <c r="C573" t="n">
+      <c r="D580" t="s">
+        <v>807</v>
+      </c>
+      <c r="E580" t="s">
+        <v>808</v>
+      </c>
+      <c r="F580" t="s">
+        <v>515</v>
+      </c>
+      <c r="G580" t="s">
+        <v>33</v>
+      </c>
+      <c r="H580" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8">
+      <c r="A582" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8">
+      <c r="B583" t="s">
+        <v>804</v>
+      </c>
+      <c r="C583" t="n">
         <v>3.778</v>
       </c>
-      <c r="D573" t="s">
-        <v>802</v>
-      </c>
-      <c r="E573" t="s">
+      <c r="D583" t="s">
+        <v>810</v>
+      </c>
+      <c r="E583" t="s">
         <v>186</v>
       </c>
-      <c r="F573" t="s">
-        <v>589</v>
-      </c>
-      <c r="G573" t="s">
-        <v>33</v>
-      </c>
-      <c r="H573" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="575" spans="1:8">
-      <c r="A575" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="576" spans="1:8">
-      <c r="B576" t="s">
-        <v>742</v>
-      </c>
-      <c r="C576" t="n">
+      <c r="F583" t="s">
+        <v>595</v>
+      </c>
+      <c r="G583" t="s">
+        <v>33</v>
+      </c>
+      <c r="H583" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8">
+      <c r="A585" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8">
+      <c r="B586" t="s">
+        <v>752</v>
+      </c>
+      <c r="C586" t="n">
         <v>3.842</v>
       </c>
-      <c r="D576" t="s">
+      <c r="D586" t="s">
         <v>211</v>
       </c>
-      <c r="E576" t="s">
+      <c r="E586" t="s">
         <v>212</v>
       </c>
-      <c r="F576" t="s">
-        <v>33</v>
-      </c>
-      <c r="G576" t="s">
-        <v>33</v>
-      </c>
-      <c r="H576" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="578" spans="1:8">
-      <c r="A578" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="579" spans="1:8">
-      <c r="B579" t="s">
-        <v>798</v>
-      </c>
-      <c r="C579" t="n">
-        <v>3.523</v>
-      </c>
-      <c r="D579" t="s">
-        <v>372</v>
-      </c>
-      <c r="E579" t="s">
-        <v>417</v>
-      </c>
-      <c r="F579" t="s">
-        <v>33</v>
-      </c>
-      <c r="G579" t="s">
-        <v>33</v>
-      </c>
-      <c r="H579" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="581" spans="1:8">
-      <c r="A581" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="582" spans="1:8">
-      <c r="B582" t="s">
-        <v>798</v>
-      </c>
-      <c r="C582" t="n">
-        <v>4</v>
-      </c>
-      <c r="D582" t="s">
-        <v>192</v>
-      </c>
-      <c r="E582" t="s">
-        <v>33</v>
-      </c>
-      <c r="F582" t="s">
-        <v>33</v>
-      </c>
-      <c r="G582" t="s">
-        <v>33</v>
-      </c>
-      <c r="H582" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="584" spans="1:8">
-      <c r="A584" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="585" spans="1:8">
-      <c r="B585" t="s">
-        <v>487</v>
-      </c>
-      <c r="C585" t="n">
-        <v>2.7005</v>
-      </c>
-      <c r="D585" t="s">
-        <v>807</v>
-      </c>
-      <c r="E585" t="s">
-        <v>808</v>
-      </c>
-      <c r="F585" t="s">
-        <v>809</v>
-      </c>
-      <c r="G585" t="s">
-        <v>810</v>
-      </c>
-      <c r="H585" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="587" spans="1:8">
-      <c r="A587" t="s">
+      <c r="F586" t="s">
+        <v>33</v>
+      </c>
+      <c r="G586" t="s">
+        <v>33</v>
+      </c>
+      <c r="H586" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8">
+      <c r="A588" t="s">
         <v>812</v>
-      </c>
-    </row>
-    <row r="588" spans="1:8">
-      <c r="B588" t="s">
-        <v>407</v>
-      </c>
-      <c r="C588" t="n">
-        <v>3.667</v>
-      </c>
-      <c r="D588" t="s">
-        <v>385</v>
-      </c>
-      <c r="E588" t="s">
-        <v>118</v>
-      </c>
-      <c r="F588" t="s">
-        <v>33</v>
-      </c>
-      <c r="G588" t="s">
-        <v>33</v>
-      </c>
-      <c r="H588" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="589" spans="1:8">
       <c r="B589" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="C589" t="n">
-        <v>3.0405</v>
+        <v>3.523</v>
       </c>
       <c r="D589" t="s">
-        <v>814</v>
+        <v>372</v>
       </c>
       <c r="E589" t="s">
-        <v>815</v>
+        <v>421</v>
       </c>
       <c r="F589" t="s">
-        <v>816</v>
+        <v>33</v>
       </c>
       <c r="G589" t="s">
-        <v>817</v>
+        <v>33</v>
       </c>
       <c r="H589" t="s">
-        <v>818</v>
+        <v>33</v>
       </c>
     </row>
     <row r="591" spans="1:8">
       <c r="A591" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="592" spans="1:8">
       <c r="B592" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="C592" t="n">
-        <v>3.241</v>
+        <v>4</v>
       </c>
       <c r="D592" t="s">
-        <v>821</v>
+        <v>192</v>
       </c>
       <c r="E592" t="s">
-        <v>821</v>
+        <v>33</v>
       </c>
       <c r="F592" t="s">
-        <v>822</v>
+        <v>33</v>
       </c>
       <c r="G592" t="s">
-        <v>823</v>
+        <v>33</v>
       </c>
       <c r="H592" t="s">
         <v>33</v>
@@ -9364,49 +9438,49 @@
     </row>
     <row r="594" spans="1:8">
       <c r="A594" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
     </row>
     <row r="595" spans="1:8">
       <c r="B595" t="s">
-        <v>225</v>
+        <v>493</v>
       </c>
       <c r="C595" t="n">
-        <v>3.271</v>
+        <v>2.7005</v>
       </c>
       <c r="D595" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="E595" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="F595" t="s">
-        <v>503</v>
+        <v>817</v>
       </c>
       <c r="G595" t="s">
-        <v>33</v>
+        <v>818</v>
       </c>
       <c r="H595" t="s">
-        <v>33</v>
+        <v>819</v>
       </c>
     </row>
     <row r="597" spans="1:8">
       <c r="A597" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
     </row>
     <row r="598" spans="1:8">
       <c r="B598" t="s">
-        <v>828</v>
+        <v>409</v>
       </c>
       <c r="C598" t="n">
-        <v>3.556</v>
+        <v>3.667</v>
       </c>
       <c r="D598" t="s">
-        <v>137</v>
+        <v>385</v>
       </c>
       <c r="E598" t="s">
-        <v>829</v>
+        <v>118</v>
       </c>
       <c r="F598" t="s">
         <v>33</v>
@@ -9420,103 +9494,103 @@
     </row>
     <row r="599" spans="1:8">
       <c r="B599" t="s">
-        <v>451</v>
+        <v>821</v>
       </c>
       <c r="C599" t="n">
-        <v>3.384</v>
+        <v>3.0405</v>
       </c>
       <c r="D599" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="E599" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="F599" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="G599" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="H599" t="s">
-        <v>33</v>
+        <v>826</v>
       </c>
     </row>
     <row r="601" spans="1:8">
       <c r="A601" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
     </row>
     <row r="602" spans="1:8">
       <c r="B602" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="C602" t="n">
-        <v>3.2425</v>
+        <v>3.241</v>
       </c>
       <c r="D602" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="E602" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="F602" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="G602" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="H602" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="604" spans="1:8">
       <c r="A604" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="605" spans="1:8">
       <c r="B605" t="s">
-        <v>438</v>
+        <v>225</v>
       </c>
       <c r="C605" t="n">
-        <v>3.112</v>
+        <v>3.271</v>
       </c>
       <c r="D605" t="s">
-        <v>639</v>
+        <v>833</v>
       </c>
       <c r="E605" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F605" t="s">
-        <v>840</v>
+        <v>509</v>
       </c>
       <c r="G605" t="s">
         <v>33</v>
       </c>
       <c r="H605" t="s">
-        <v>841</v>
+        <v>33</v>
       </c>
     </row>
     <row r="607" spans="1:8">
       <c r="A607" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
     </row>
     <row r="608" spans="1:8">
       <c r="B608" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="C608" t="n">
-        <v>3.049</v>
+        <v>3.556</v>
       </c>
       <c r="D608" t="s">
-        <v>844</v>
+        <v>137</v>
       </c>
       <c r="E608" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="F608" t="s">
-        <v>511</v>
+        <v>33</v>
       </c>
       <c r="G608" t="s">
         <v>33</v>
@@ -9527,218 +9601,353 @@
     </row>
     <row r="609" spans="1:8">
       <c r="B609" t="s">
-        <v>846</v>
+        <v>457</v>
       </c>
       <c r="C609" t="n">
-        <v>3.174</v>
+        <v>3.384</v>
       </c>
       <c r="D609" t="s">
-        <v>50</v>
+        <v>838</v>
       </c>
       <c r="E609" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="F609" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="G609" t="s">
-        <v>33</v>
+        <v>841</v>
       </c>
       <c r="H609" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="610" spans="1:8">
-      <c r="B610" t="s">
-        <v>849</v>
-      </c>
-      <c r="C610" t="n">
-        <v>2.9425</v>
-      </c>
-      <c r="D610" t="s">
-        <v>850</v>
-      </c>
-      <c r="E610" t="s">
-        <v>851</v>
-      </c>
-      <c r="F610" t="s">
-        <v>852</v>
-      </c>
-      <c r="G610" t="s">
-        <v>853</v>
-      </c>
-      <c r="H610" t="s">
-        <v>854</v>
-      </c>
-    </row>
     <row r="611" spans="1:8">
-      <c r="B611" t="s">
-        <v>855</v>
-      </c>
-      <c r="C611" t="n">
-        <v>3.0113</v>
-      </c>
-      <c r="D611" t="s">
-        <v>444</v>
-      </c>
-      <c r="E611" t="s">
-        <v>856</v>
-      </c>
-      <c r="F611" t="s">
-        <v>857</v>
-      </c>
-      <c r="G611" t="s">
-        <v>858</v>
-      </c>
-      <c r="H611" t="s">
-        <v>858</v>
+      <c r="A611" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="612" spans="1:8">
       <c r="B612" t="s">
-        <v>859</v>
+        <v>828</v>
       </c>
       <c r="C612" t="n">
-        <v>3.04</v>
+        <v>3.2425</v>
       </c>
       <c r="D612" t="s">
-        <v>664</v>
+        <v>843</v>
       </c>
       <c r="E612" t="s">
-        <v>860</v>
+        <v>843</v>
       </c>
       <c r="F612" t="s">
-        <v>104</v>
+        <v>844</v>
       </c>
       <c r="G612" t="s">
-        <v>33</v>
+        <v>845</v>
       </c>
       <c r="H612" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="613" spans="1:8">
-      <c r="B613" t="s">
-        <v>454</v>
-      </c>
-      <c r="C613" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="D613" t="s">
-        <v>665</v>
-      </c>
-      <c r="E613" t="s">
-        <v>664</v>
-      </c>
-      <c r="F613" t="s">
-        <v>33</v>
-      </c>
-      <c r="G613" t="s">
-        <v>33</v>
-      </c>
-      <c r="H613" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
     </row>
     <row r="614" spans="1:8">
-      <c r="B614" t="s">
-        <v>861</v>
-      </c>
-      <c r="C614" t="n">
-        <v>3.048</v>
-      </c>
-      <c r="D614" t="s">
-        <v>320</v>
-      </c>
-      <c r="E614" t="s">
-        <v>862</v>
-      </c>
-      <c r="F614" t="s">
-        <v>863</v>
-      </c>
-      <c r="G614" t="s">
-        <v>33</v>
-      </c>
-      <c r="H614" t="s">
-        <v>33</v>
+      <c r="A614" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="615" spans="1:8">
       <c r="B615" t="s">
-        <v>864</v>
+        <v>444</v>
       </c>
       <c r="C615" t="n">
-        <v>3.1</v>
+        <v>3.112</v>
       </c>
       <c r="D615" t="s">
-        <v>267</v>
+        <v>647</v>
       </c>
       <c r="E615" t="s">
-        <v>153</v>
+        <v>847</v>
       </c>
       <c r="F615" t="s">
-        <v>865</v>
+        <v>848</v>
       </c>
       <c r="G615" t="s">
         <v>33</v>
       </c>
       <c r="H615" t="s">
-        <v>33</v>
+        <v>849</v>
       </c>
     </row>
     <row r="617" spans="1:8">
       <c r="A617" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
     </row>
     <row r="618" spans="1:8">
       <c r="B618" t="s">
-        <v>487</v>
+        <v>417</v>
       </c>
       <c r="C618" t="n">
-        <v>2.79</v>
+        <v>3.352</v>
       </c>
       <c r="D618" t="s">
-        <v>649</v>
+        <v>851</v>
       </c>
       <c r="E618" t="s">
-        <v>867</v>
+        <v>852</v>
       </c>
       <c r="F618" t="s">
-        <v>868</v>
+        <v>734</v>
       </c>
       <c r="G618" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
       <c r="H618" t="s">
-        <v>870</v>
+        <v>33</v>
       </c>
     </row>
     <row r="620" spans="1:8">
       <c r="A620" t="s">
-        <v>871</v>
+        <v>854</v>
       </c>
     </row>
     <row r="621" spans="1:8">
       <c r="B621" t="s">
-        <v>430</v>
+        <v>855</v>
       </c>
       <c r="C621" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="D621" t="s">
+        <v>856</v>
+      </c>
+      <c r="E621" t="s">
+        <v>857</v>
+      </c>
+      <c r="F621" t="s">
+        <v>517</v>
+      </c>
+      <c r="G621" t="s">
+        <v>33</v>
+      </c>
+      <c r="H621" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8">
+      <c r="B622" t="s">
+        <v>858</v>
+      </c>
+      <c r="C622" t="n">
+        <v>3.174</v>
+      </c>
+      <c r="D622" t="s">
+        <v>50</v>
+      </c>
+      <c r="E622" t="s">
+        <v>859</v>
+      </c>
+      <c r="F622" t="s">
+        <v>860</v>
+      </c>
+      <c r="G622" t="s">
+        <v>33</v>
+      </c>
+      <c r="H622" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8">
+      <c r="B623" t="s">
+        <v>861</v>
+      </c>
+      <c r="C623" t="n">
+        <v>2.9425</v>
+      </c>
+      <c r="D623" t="s">
+        <v>862</v>
+      </c>
+      <c r="E623" t="s">
+        <v>863</v>
+      </c>
+      <c r="F623" t="s">
+        <v>864</v>
+      </c>
+      <c r="G623" t="s">
+        <v>865</v>
+      </c>
+      <c r="H623" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8">
+      <c r="B624" t="s">
+        <v>867</v>
+      </c>
+      <c r="C624" t="n">
+        <v>3.0113</v>
+      </c>
+      <c r="D624" t="s">
+        <v>450</v>
+      </c>
+      <c r="E624" t="s">
+        <v>868</v>
+      </c>
+      <c r="F624" t="s">
+        <v>869</v>
+      </c>
+      <c r="G624" t="s">
+        <v>870</v>
+      </c>
+      <c r="H624" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8">
+      <c r="B625" t="s">
+        <v>871</v>
+      </c>
+      <c r="C625" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D625" t="s">
+        <v>673</v>
+      </c>
+      <c r="E625" t="s">
+        <v>872</v>
+      </c>
+      <c r="F625" t="s">
+        <v>104</v>
+      </c>
+      <c r="G625" t="s">
+        <v>33</v>
+      </c>
+      <c r="H625" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8">
+      <c r="B626" t="s">
+        <v>460</v>
+      </c>
+      <c r="C626" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="D626" t="s">
+        <v>674</v>
+      </c>
+      <c r="E626" t="s">
+        <v>673</v>
+      </c>
+      <c r="F626" t="s">
+        <v>33</v>
+      </c>
+      <c r="G626" t="s">
+        <v>33</v>
+      </c>
+      <c r="H626" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8">
+      <c r="B627" t="s">
+        <v>873</v>
+      </c>
+      <c r="C627" t="n">
+        <v>3.048</v>
+      </c>
+      <c r="D627" t="s">
+        <v>320</v>
+      </c>
+      <c r="E627" t="s">
+        <v>851</v>
+      </c>
+      <c r="F627" t="s">
+        <v>874</v>
+      </c>
+      <c r="G627" t="s">
+        <v>33</v>
+      </c>
+      <c r="H627" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8">
+      <c r="B628" t="s">
+        <v>875</v>
+      </c>
+      <c r="C628" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D628" t="s">
+        <v>267</v>
+      </c>
+      <c r="E628" t="s">
+        <v>153</v>
+      </c>
+      <c r="F628" t="s">
+        <v>876</v>
+      </c>
+      <c r="G628" t="s">
+        <v>33</v>
+      </c>
+      <c r="H628" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8">
+      <c r="A630" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8">
+      <c r="B631" t="s">
+        <v>493</v>
+      </c>
+      <c r="C631" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="D631" t="s">
+        <v>657</v>
+      </c>
+      <c r="E631" t="s">
+        <v>878</v>
+      </c>
+      <c r="F631" t="s">
+        <v>879</v>
+      </c>
+      <c r="G631" t="s">
+        <v>880</v>
+      </c>
+      <c r="H631" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8">
+      <c r="A633" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8">
+      <c r="B634" t="s">
+        <v>436</v>
+      </c>
+      <c r="C634" t="n">
         <v>3.542</v>
       </c>
-      <c r="D621" t="s">
-        <v>872</v>
-      </c>
-      <c r="E621" t="s">
-        <v>427</v>
-      </c>
-      <c r="F621" t="s">
+      <c r="D634" t="s">
+        <v>883</v>
+      </c>
+      <c r="E634" t="s">
+        <v>433</v>
+      </c>
+      <c r="F634" t="s">
         <v>182</v>
       </c>
-      <c r="G621" t="s">
-        <v>33</v>
-      </c>
-      <c r="H621" t="s">
+      <c r="G634" t="s">
+        <v>33</v>
+      </c>
+      <c r="H634" t="s">
         <v>33</v>
       </c>
     </row>
